--- a/BackTest/2019-10-29 BackTest PLY.xlsx
+++ b/BackTest/2019-10-29 BackTest PLY.xlsx
@@ -836,17 +836,13 @@
         <v>4.103000000000003</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K13" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
@@ -875,22 +871,14 @@
         <v>4.103000000000003</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
       </c>
@@ -924,14 +912,8 @@
         <v>0</v>
       </c>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -965,14 +947,8 @@
         <v>0</v>
       </c>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1006,14 +982,8 @@
         <v>0</v>
       </c>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1047,14 +1017,8 @@
         <v>0</v>
       </c>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1088,14 +1052,8 @@
         <v>0</v>
       </c>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1129,14 +1087,8 @@
         <v>0</v>
       </c>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1170,14 +1122,8 @@
         <v>0</v>
       </c>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1211,14 +1157,8 @@
         <v>0</v>
       </c>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1246,22 +1186,14 @@
         <v>4.089000000000001</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1289,22 +1221,14 @@
         <v>4.087500000000001</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K24" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1332,22 +1256,14 @@
         <v>4.087500000000001</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K25" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1375,22 +1291,14 @@
         <v>4.086000000000001</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K26" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1418,22 +1326,14 @@
         <v>4.086500000000002</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K27" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1461,22 +1361,14 @@
         <v>4.086000000000002</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K28" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1504,22 +1396,14 @@
         <v>4.084000000000001</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K29" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1547,22 +1431,14 @@
         <v>4.085000000000002</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K30" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1590,22 +1466,14 @@
         <v>4.087500000000001</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K31" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1633,22 +1501,14 @@
         <v>4.086500000000002</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K32" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1536,14 @@
         <v>4.084500000000001</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K33" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1719,22 +1571,14 @@
         <v>4.083500000000001</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K34" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1762,22 +1606,14 @@
         <v>4.083500000000001</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K35" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1805,22 +1641,14 @@
         <v>4.083000000000001</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K36" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1848,22 +1676,14 @@
         <v>4.082500000000001</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K37" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1891,22 +1711,14 @@
         <v>4.080500000000001</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="K38" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1934,22 +1746,14 @@
         <v>4.078500000000001</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K39" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1977,22 +1781,14 @@
         <v>4.077500000000001</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K40" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2020,22 +1816,14 @@
         <v>4.077000000000002</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K41" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2063,22 +1851,14 @@
         <v>4.076000000000002</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>4.06</v>
-      </c>
-      <c r="K42" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2114,12 +1894,10 @@
       <c r="J43" t="n">
         <v>4.06</v>
       </c>
-      <c r="K43" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 체결</t>
         </is>
       </c>
       <c r="M43" t="n">
@@ -2155,11 +1933,9 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K44" t="n">
-        <v>4.12</v>
-      </c>
+        <v>4.06</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2198,11 +1974,9 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K45" t="n">
-        <v>4.12</v>
-      </c>
+        <v>4.08</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2243,9 +2017,7 @@
       <c r="J46" t="n">
         <v>4.07</v>
       </c>
-      <c r="K46" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2286,9 +2058,7 @@
       <c r="J47" t="n">
         <v>4.08</v>
       </c>
-      <c r="K47" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2321,17 +2091,13 @@
         <v>4.075000000000003</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="K48" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2364,17 +2130,13 @@
         <v>4.075000000000003</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K49" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2407,17 +2169,13 @@
         <v>4.075000000000003</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>4.08</v>
-      </c>
-      <c r="K50" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2450,17 +2208,13 @@
         <v>4.075000000000003</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="K51" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2493,17 +2247,13 @@
         <v>4.077000000000004</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K52" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2536,17 +2286,13 @@
         <v>4.079000000000003</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="K53" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2585,9 +2331,7 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2626,9 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J55" t="inlineStr"/>
-      <c r="K55" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2667,9 +2409,7 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2708,9 +2448,7 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2749,9 +2487,7 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2790,9 +2526,7 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2831,9 +2565,7 @@
         <v>0</v>
       </c>
       <c r="J60" t="inlineStr"/>
-      <c r="K60" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2872,9 +2604,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2913,9 +2643,7 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2954,9 +2682,7 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -2995,9 +2721,7 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3036,9 +2760,7 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3077,9 +2799,7 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3118,9 +2838,7 @@
         <v>0</v>
       </c>
       <c r="J67" t="inlineStr"/>
-      <c r="K67" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3159,9 +2877,7 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3200,9 +2916,7 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3241,9 +2955,7 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3282,9 +2994,7 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3323,9 +3033,7 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3364,9 +3072,7 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3405,9 +3111,7 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3446,9 +3150,7 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3487,9 +3189,7 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3528,9 +3228,7 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3569,9 +3267,7 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3610,9 +3306,7 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3651,9 +3345,7 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3692,9 +3384,7 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3733,9 +3423,7 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3774,9 +3462,7 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3815,9 +3501,7 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3856,9 +3540,7 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3897,9 +3579,7 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3938,9 +3618,7 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -3979,9 +3657,7 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4020,9 +3696,7 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4061,9 +3735,7 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4102,9 +3774,7 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4143,9 +3813,7 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4184,9 +3852,7 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4225,9 +3891,7 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4266,9 +3930,7 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4307,9 +3969,7 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4348,9 +4008,7 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4389,9 +4047,7 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4430,9 +4086,7 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4471,9 +4125,7 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4512,9 +4164,7 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4553,9 +4203,7 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4594,9 +4242,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4635,9 +4281,7 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4676,9 +4320,7 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4717,9 +4359,7 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4758,9 +4398,7 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4799,9 +4437,7 @@
         <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4840,9 +4476,7 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4881,9 +4515,7 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4922,9 +4554,7 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -4963,9 +4593,7 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5004,9 +4632,7 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5045,9 +4671,7 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5086,9 +4710,7 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5127,9 +4749,7 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5168,9 +4788,7 @@
         <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5209,9 +4827,7 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5250,9 +4866,7 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5291,9 +4905,7 @@
         <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5332,9 +4944,7 @@
         <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5373,9 +4983,7 @@
         <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5414,9 +5022,7 @@
         <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5455,9 +5061,7 @@
         <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5496,9 +5100,7 @@
         <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5537,9 +5139,7 @@
         <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5578,9 +5178,7 @@
         <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5619,9 +5217,7 @@
         <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5660,9 +5256,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5701,9 +5295,7 @@
         <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5742,9 +5334,7 @@
         <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5783,9 +5373,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5824,9 +5412,7 @@
         <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5865,9 +5451,7 @@
         <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5906,9 +5490,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5947,9 +5529,7 @@
         <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5988,9 +5568,7 @@
         <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6029,9 +5607,7 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6070,9 +5646,7 @@
         <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6111,9 +5685,7 @@
         <v>0</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6152,9 +5724,7 @@
         <v>0</v>
       </c>
       <c r="J141" t="inlineStr"/>
-      <c r="K141" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6193,9 +5763,7 @@
         <v>0</v>
       </c>
       <c r="J142" t="inlineStr"/>
-      <c r="K142" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6234,9 +5802,7 @@
         <v>0</v>
       </c>
       <c r="J143" t="inlineStr"/>
-      <c r="K143" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6275,9 +5841,7 @@
         <v>0</v>
       </c>
       <c r="J144" t="inlineStr"/>
-      <c r="K144" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6316,9 +5880,7 @@
         <v>0</v>
       </c>
       <c r="J145" t="inlineStr"/>
-      <c r="K145" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6357,9 +5919,7 @@
         <v>0</v>
       </c>
       <c r="J146" t="inlineStr"/>
-      <c r="K146" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6392,15 +5952,15 @@
         <v>4.101500000000002</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J147" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6433,15 +5993,15 @@
         <v>4.101000000000002</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J148" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6474,15 +6034,15 @@
         <v>4.101000000000002</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="J149" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6521,9 +6081,7 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6562,9 +6120,7 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6603,9 +6159,7 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6644,9 +6198,7 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6685,9 +6237,7 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6726,9 +6276,7 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6767,9 +6315,7 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6808,9 +6354,7 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6849,9 +6393,7 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6890,9 +6432,7 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,9 +6471,7 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6972,9 +6510,7 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7013,9 +6549,7 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7054,9 +6588,7 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7095,9 +6627,7 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7136,9 +6666,7 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7177,9 +6705,7 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7218,9 +6744,7 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7259,9 +6783,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7300,9 +6822,7 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7341,9 +6861,7 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7382,9 +6900,7 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7423,9 +6939,7 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7464,9 +6978,7 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7505,9 +7017,7 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7546,9 +7056,7 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7587,9 +7095,7 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7628,9 +7134,7 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7669,9 +7173,7 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7710,9 +7212,7 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7751,9 +7251,7 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7792,9 +7290,7 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7833,9 +7329,7 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7874,9 +7368,7 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7915,9 +7407,7 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7956,9 +7446,7 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7997,9 +7485,7 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8038,9 +7524,7 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8079,9 +7563,7 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,9 +7602,7 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8161,9 +7641,7 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8202,9 +7680,7 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8243,9 +7719,7 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8284,9 +7758,7 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,9 +7797,7 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8366,9 +7836,7 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8407,9 +7875,7 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8448,9 +7914,7 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8489,9 +7953,7 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8530,9 +7992,7 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8571,9 +8031,7 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8612,9 +8070,7 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8653,9 +8109,7 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8694,9 +8148,7 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8735,9 +8187,7 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8776,9 +8226,7 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8817,9 +8265,7 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8858,9 +8304,7 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8899,9 +8343,7 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8940,9 +8382,7 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8981,9 +8421,7 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9022,9 +8460,7 @@
         <v>0</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9063,9 +8499,7 @@
         <v>0</v>
       </c>
       <c r="J212" t="inlineStr"/>
-      <c r="K212" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9104,9 +8538,7 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,9 +8577,7 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9186,9 +8616,7 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9227,9 +8655,7 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,9 +8694,7 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9309,9 +8733,7 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9350,9 +8772,7 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9391,9 +8811,7 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9432,9 +8850,7 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9473,9 +8889,7 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9514,9 +8928,7 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9555,9 +8967,7 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9596,9 +9006,7 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9637,9 +9045,7 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9678,9 +9084,7 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9719,9 +9123,7 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9760,9 +9162,7 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9801,9 +9201,7 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9842,9 +9240,7 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9883,9 +9279,7 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,9 +9318,7 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9965,9 +9357,7 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10006,9 +9396,7 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10047,9 +9435,7 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10088,9 +9474,7 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10129,9 +9513,7 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10170,9 +9552,7 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10211,9 +9591,7 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10252,9 +9630,7 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10293,9 +9669,7 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10334,9 +9708,7 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10375,9 +9747,7 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10416,9 +9786,7 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10457,9 +9825,7 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10498,9 +9864,7 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10539,9 +9903,7 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10580,9 +9942,7 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10621,9 +9981,7 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10662,9 +10020,7 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10703,9 +10059,7 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10744,9 +10098,7 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10785,9 +10137,7 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10826,9 +10176,7 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10867,9 +10215,7 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10908,9 +10254,7 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10949,9 +10293,7 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10990,9 +10332,7 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11031,9 +10371,7 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11072,9 +10410,7 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11113,9 +10449,7 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11154,9 +10488,7 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11195,9 +10527,7 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11236,9 +10566,7 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11277,9 +10605,7 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11318,9 +10644,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11359,9 +10683,7 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11400,9 +10722,7 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11441,9 +10761,7 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11482,9 +10800,7 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11523,9 +10839,7 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11564,9 +10878,7 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11605,9 +10917,7 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,9 +10956,7 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11687,9 +10995,7 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11728,9 +11034,7 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11769,9 +11073,7 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11810,9 +11112,7 @@
         <v>0</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11851,9 +11151,7 @@
         <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
-      <c r="K280" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11892,9 +11190,7 @@
         <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
-      <c r="K281" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11933,9 +11229,7 @@
         <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
-      <c r="K282" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11974,9 +11268,7 @@
         <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
-      <c r="K283" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12015,9 +11307,7 @@
         <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
-      <c r="K284" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12056,9 +11346,7 @@
         <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
-      <c r="K285" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12097,9 +11385,7 @@
         <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
-      <c r="K286" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12138,9 +11424,7 @@
         <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
-      <c r="K287" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12179,9 +11463,7 @@
         <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
-      <c r="K288" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12220,9 +11502,7 @@
         <v>0</v>
       </c>
       <c r="J289" t="inlineStr"/>
-      <c r="K289" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12261,9 +11541,7 @@
         <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
-      <c r="K290" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12302,9 +11580,7 @@
         <v>0</v>
       </c>
       <c r="J291" t="inlineStr"/>
-      <c r="K291" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12343,9 +11619,7 @@
         <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
-      <c r="K292" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12384,9 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J293" t="inlineStr"/>
-      <c r="K293" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12425,9 +11697,7 @@
         <v>0</v>
       </c>
       <c r="J294" t="inlineStr"/>
-      <c r="K294" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12466,9 +11736,7 @@
         <v>0</v>
       </c>
       <c r="J295" t="inlineStr"/>
-      <c r="K295" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12507,9 +11775,7 @@
         <v>0</v>
       </c>
       <c r="J296" t="inlineStr"/>
-      <c r="K296" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12548,9 +11814,7 @@
         <v>0</v>
       </c>
       <c r="J297" t="inlineStr"/>
-      <c r="K297" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12589,9 +11853,7 @@
         <v>0</v>
       </c>
       <c r="J298" t="inlineStr"/>
-      <c r="K298" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12630,9 +11892,7 @@
         <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
-      <c r="K299" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12671,9 +11931,7 @@
         <v>0</v>
       </c>
       <c r="J300" t="inlineStr"/>
-      <c r="K300" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12712,9 +11970,7 @@
         <v>0</v>
       </c>
       <c r="J301" t="inlineStr"/>
-      <c r="K301" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12753,9 +12009,7 @@
         <v>0</v>
       </c>
       <c r="J302" t="inlineStr"/>
-      <c r="K302" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12794,9 +12048,7 @@
         <v>0</v>
       </c>
       <c r="J303" t="inlineStr"/>
-      <c r="K303" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12835,9 +12087,7 @@
         <v>0</v>
       </c>
       <c r="J304" t="inlineStr"/>
-      <c r="K304" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12876,9 +12126,7 @@
         <v>0</v>
       </c>
       <c r="J305" t="inlineStr"/>
-      <c r="K305" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,9 +12165,7 @@
         <v>0</v>
       </c>
       <c r="J306" t="inlineStr"/>
-      <c r="K306" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12958,9 +12204,7 @@
         <v>0</v>
       </c>
       <c r="J307" t="inlineStr"/>
-      <c r="K307" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12999,9 +12243,7 @@
         <v>0</v>
       </c>
       <c r="J308" t="inlineStr"/>
-      <c r="K308" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13040,9 +12282,7 @@
         <v>0</v>
       </c>
       <c r="J309" t="inlineStr"/>
-      <c r="K309" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13081,9 +12321,7 @@
         <v>0</v>
       </c>
       <c r="J310" t="inlineStr"/>
-      <c r="K310" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,9 +12360,7 @@
         <v>0</v>
       </c>
       <c r="J311" t="inlineStr"/>
-      <c r="K311" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13163,9 +12399,7 @@
         <v>0</v>
       </c>
       <c r="J312" t="inlineStr"/>
-      <c r="K312" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,9 +12438,7 @@
         <v>0</v>
       </c>
       <c r="J313" t="inlineStr"/>
-      <c r="K313" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13245,9 +12477,7 @@
         <v>0</v>
       </c>
       <c r="J314" t="inlineStr"/>
-      <c r="K314" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13286,9 +12516,7 @@
         <v>0</v>
       </c>
       <c r="J315" t="inlineStr"/>
-      <c r="K315" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13327,9 +12555,7 @@
         <v>0</v>
       </c>
       <c r="J316" t="inlineStr"/>
-      <c r="K316" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13368,9 +12594,7 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13409,9 +12633,7 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13450,9 +12672,7 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13491,9 +12711,7 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13532,9 +12750,7 @@
         <v>0</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13573,9 +12789,7 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13614,9 +12828,7 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13655,9 +12867,7 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13696,9 +12906,7 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13737,9 +12945,7 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13778,9 +12984,7 @@
         <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13819,9 +13023,7 @@
         <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
-      <c r="K328" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13860,9 +13062,7 @@
         <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
-      <c r="K329" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13901,9 +13101,7 @@
         <v>0</v>
       </c>
       <c r="J330" t="inlineStr"/>
-      <c r="K330" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13942,9 +13140,7 @@
         <v>0</v>
       </c>
       <c r="J331" t="inlineStr"/>
-      <c r="K331" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13983,9 +13179,7 @@
         <v>0</v>
       </c>
       <c r="J332" t="inlineStr"/>
-      <c r="K332" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14024,9 +13218,7 @@
         <v>0</v>
       </c>
       <c r="J333" t="inlineStr"/>
-      <c r="K333" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14065,9 +13257,7 @@
         <v>0</v>
       </c>
       <c r="J334" t="inlineStr"/>
-      <c r="K334" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14106,9 +13296,7 @@
         <v>0</v>
       </c>
       <c r="J335" t="inlineStr"/>
-      <c r="K335" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14147,9 +13335,7 @@
         <v>0</v>
       </c>
       <c r="J336" t="inlineStr"/>
-      <c r="K336" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14188,9 +13374,7 @@
         <v>0</v>
       </c>
       <c r="J337" t="inlineStr"/>
-      <c r="K337" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14229,9 +13413,7 @@
         <v>0</v>
       </c>
       <c r="J338" t="inlineStr"/>
-      <c r="K338" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14270,9 +13452,7 @@
         <v>0</v>
       </c>
       <c r="J339" t="inlineStr"/>
-      <c r="K339" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14311,9 +13491,7 @@
         <v>0</v>
       </c>
       <c r="J340" t="inlineStr"/>
-      <c r="K340" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14352,9 +13530,7 @@
         <v>0</v>
       </c>
       <c r="J341" t="inlineStr"/>
-      <c r="K341" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14393,9 +13569,7 @@
         <v>0</v>
       </c>
       <c r="J342" t="inlineStr"/>
-      <c r="K342" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14434,9 +13608,7 @@
         <v>0</v>
       </c>
       <c r="J343" t="inlineStr"/>
-      <c r="K343" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14475,9 +13647,7 @@
         <v>0</v>
       </c>
       <c r="J344" t="inlineStr"/>
-      <c r="K344" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14516,9 +13686,7 @@
         <v>0</v>
       </c>
       <c r="J345" t="inlineStr"/>
-      <c r="K345" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14557,9 +13725,7 @@
         <v>0</v>
       </c>
       <c r="J346" t="inlineStr"/>
-      <c r="K346" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14598,9 +13764,7 @@
         <v>0</v>
       </c>
       <c r="J347" t="inlineStr"/>
-      <c r="K347" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14639,9 +13803,7 @@
         <v>0</v>
       </c>
       <c r="J348" t="inlineStr"/>
-      <c r="K348" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14680,9 +13842,7 @@
         <v>0</v>
       </c>
       <c r="J349" t="inlineStr"/>
-      <c r="K349" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14721,9 +13881,7 @@
         <v>0</v>
       </c>
       <c r="J350" t="inlineStr"/>
-      <c r="K350" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14762,9 +13920,7 @@
         <v>0</v>
       </c>
       <c r="J351" t="inlineStr"/>
-      <c r="K351" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14803,9 +13959,7 @@
         <v>0</v>
       </c>
       <c r="J352" t="inlineStr"/>
-      <c r="K352" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14844,9 +13998,7 @@
         <v>0</v>
       </c>
       <c r="J353" t="inlineStr"/>
-      <c r="K353" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14885,9 +14037,7 @@
         <v>0</v>
       </c>
       <c r="J354" t="inlineStr"/>
-      <c r="K354" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14926,9 +14076,7 @@
         <v>0</v>
       </c>
       <c r="J355" t="inlineStr"/>
-      <c r="K355" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14967,9 +14115,7 @@
         <v>0</v>
       </c>
       <c r="J356" t="inlineStr"/>
-      <c r="K356" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15008,9 +14154,7 @@
         <v>0</v>
       </c>
       <c r="J357" t="inlineStr"/>
-      <c r="K357" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15049,9 +14193,7 @@
         <v>0</v>
       </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15090,9 +14232,7 @@
         <v>0</v>
       </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15131,9 +14271,7 @@
         <v>0</v>
       </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15172,9 +14310,7 @@
         <v>0</v>
       </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15213,9 +14349,7 @@
         <v>0</v>
       </c>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15254,9 +14388,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K363" t="inlineStr"/>
       <c r="L363" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15295,9 +14427,7 @@
         <v>0</v>
       </c>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K364" t="inlineStr"/>
       <c r="L364" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15336,9 +14466,7 @@
         <v>0</v>
       </c>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K365" t="inlineStr"/>
       <c r="L365" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15377,9 +14505,7 @@
         <v>0</v>
       </c>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K366" t="inlineStr"/>
       <c r="L366" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15418,9 +14544,7 @@
         <v>0</v>
       </c>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K367" t="inlineStr"/>
       <c r="L367" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15459,9 +14583,7 @@
         <v>0</v>
       </c>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K368" t="inlineStr"/>
       <c r="L368" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15500,9 +14622,7 @@
         <v>0</v>
       </c>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K369" t="inlineStr"/>
       <c r="L369" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15541,9 +14661,7 @@
         <v>0</v>
       </c>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K370" t="inlineStr"/>
       <c r="L370" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15582,9 +14700,7 @@
         <v>0</v>
       </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K371" t="inlineStr"/>
       <c r="L371" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15623,9 +14739,7 @@
         <v>0</v>
       </c>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K372" t="inlineStr"/>
       <c r="L372" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15664,9 +14778,7 @@
         <v>0</v>
       </c>
       <c r="J373" t="inlineStr"/>
-      <c r="K373" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K373" t="inlineStr"/>
       <c r="L373" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15705,9 +14817,7 @@
         <v>0</v>
       </c>
       <c r="J374" t="inlineStr"/>
-      <c r="K374" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K374" t="inlineStr"/>
       <c r="L374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15746,9 +14856,7 @@
         <v>0</v>
       </c>
       <c r="J375" t="inlineStr"/>
-      <c r="K375" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K375" t="inlineStr"/>
       <c r="L375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15787,9 +14895,7 @@
         <v>0</v>
       </c>
       <c r="J376" t="inlineStr"/>
-      <c r="K376" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K376" t="inlineStr"/>
       <c r="L376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15828,9 +14934,7 @@
         <v>0</v>
       </c>
       <c r="J377" t="inlineStr"/>
-      <c r="K377" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K377" t="inlineStr"/>
       <c r="L377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15869,9 +14973,7 @@
         <v>0</v>
       </c>
       <c r="J378" t="inlineStr"/>
-      <c r="K378" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K378" t="inlineStr"/>
       <c r="L378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15910,9 +15012,7 @@
         <v>0</v>
       </c>
       <c r="J379" t="inlineStr"/>
-      <c r="K379" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15951,9 +15051,7 @@
         <v>0</v>
       </c>
       <c r="J380" t="inlineStr"/>
-      <c r="K380" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K380" t="inlineStr"/>
       <c r="L380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15992,9 +15090,7 @@
         <v>0</v>
       </c>
       <c r="J381" t="inlineStr"/>
-      <c r="K381" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K381" t="inlineStr"/>
       <c r="L381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16033,9 +15129,7 @@
         <v>0</v>
       </c>
       <c r="J382" t="inlineStr"/>
-      <c r="K382" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16074,9 +15168,7 @@
         <v>0</v>
       </c>
       <c r="J383" t="inlineStr"/>
-      <c r="K383" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16115,9 +15207,7 @@
         <v>0</v>
       </c>
       <c r="J384" t="inlineStr"/>
-      <c r="K384" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16156,9 +15246,7 @@
         <v>0</v>
       </c>
       <c r="J385" t="inlineStr"/>
-      <c r="K385" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K385" t="inlineStr"/>
       <c r="L385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16197,9 +15285,7 @@
         <v>0</v>
       </c>
       <c r="J386" t="inlineStr"/>
-      <c r="K386" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K386" t="inlineStr"/>
       <c r="L386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16238,9 +15324,7 @@
         <v>0</v>
       </c>
       <c r="J387" t="inlineStr"/>
-      <c r="K387" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16279,9 +15363,7 @@
         <v>0</v>
       </c>
       <c r="J388" t="inlineStr"/>
-      <c r="K388" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16320,9 +15402,7 @@
         <v>0</v>
       </c>
       <c r="J389" t="inlineStr"/>
-      <c r="K389" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16361,9 +15441,7 @@
         <v>0</v>
       </c>
       <c r="J390" t="inlineStr"/>
-      <c r="K390" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16402,9 +15480,7 @@
         <v>0</v>
       </c>
       <c r="J391" t="inlineStr"/>
-      <c r="K391" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16443,9 +15519,7 @@
         <v>0</v>
       </c>
       <c r="J392" t="inlineStr"/>
-      <c r="K392" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16484,9 +15558,7 @@
         <v>0</v>
       </c>
       <c r="J393" t="inlineStr"/>
-      <c r="K393" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16525,9 +15597,7 @@
         <v>0</v>
       </c>
       <c r="J394" t="inlineStr"/>
-      <c r="K394" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16566,9 +15636,7 @@
         <v>0</v>
       </c>
       <c r="J395" t="inlineStr"/>
-      <c r="K395" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16607,9 +15675,7 @@
         <v>0</v>
       </c>
       <c r="J396" t="inlineStr"/>
-      <c r="K396" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16648,9 +15714,7 @@
         <v>0</v>
       </c>
       <c r="J397" t="inlineStr"/>
-      <c r="K397" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16689,9 +15753,7 @@
         <v>0</v>
       </c>
       <c r="J398" t="inlineStr"/>
-      <c r="K398" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16730,9 +15792,7 @@
         <v>0</v>
       </c>
       <c r="J399" t="inlineStr"/>
-      <c r="K399" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16771,9 +15831,7 @@
         <v>0</v>
       </c>
       <c r="J400" t="inlineStr"/>
-      <c r="K400" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16812,9 +15870,7 @@
         <v>0</v>
       </c>
       <c r="J401" t="inlineStr"/>
-      <c r="K401" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16853,9 +15909,7 @@
         <v>0</v>
       </c>
       <c r="J402" t="inlineStr"/>
-      <c r="K402" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16894,9 +15948,7 @@
         <v>0</v>
       </c>
       <c r="J403" t="inlineStr"/>
-      <c r="K403" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16935,9 +15987,7 @@
         <v>0</v>
       </c>
       <c r="J404" t="inlineStr"/>
-      <c r="K404" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -16976,9 +16026,7 @@
         <v>0</v>
       </c>
       <c r="J405" t="inlineStr"/>
-      <c r="K405" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17017,9 +16065,7 @@
         <v>0</v>
       </c>
       <c r="J406" t="inlineStr"/>
-      <c r="K406" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17058,9 +16104,7 @@
         <v>0</v>
       </c>
       <c r="J407" t="inlineStr"/>
-      <c r="K407" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17099,9 +16143,7 @@
         <v>0</v>
       </c>
       <c r="J408" t="inlineStr"/>
-      <c r="K408" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17140,9 +16182,7 @@
         <v>0</v>
       </c>
       <c r="J409" t="inlineStr"/>
-      <c r="K409" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17181,9 +16221,7 @@
         <v>0</v>
       </c>
       <c r="J410" t="inlineStr"/>
-      <c r="K410" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17222,9 +16260,7 @@
         <v>0</v>
       </c>
       <c r="J411" t="inlineStr"/>
-      <c r="K411" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17263,9 +16299,7 @@
         <v>0</v>
       </c>
       <c r="J412" t="inlineStr"/>
-      <c r="K412" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17304,9 +16338,7 @@
         <v>0</v>
       </c>
       <c r="J413" t="inlineStr"/>
-      <c r="K413" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17345,9 +16377,7 @@
         <v>0</v>
       </c>
       <c r="J414" t="inlineStr"/>
-      <c r="K414" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17386,9 +16416,7 @@
         <v>0</v>
       </c>
       <c r="J415" t="inlineStr"/>
-      <c r="K415" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17427,9 +16455,7 @@
         <v>0</v>
       </c>
       <c r="J416" t="inlineStr"/>
-      <c r="K416" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17468,9 +16494,7 @@
         <v>0</v>
       </c>
       <c r="J417" t="inlineStr"/>
-      <c r="K417" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17509,9 +16533,7 @@
         <v>0</v>
       </c>
       <c r="J418" t="inlineStr"/>
-      <c r="K418" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17550,9 +16572,7 @@
         <v>0</v>
       </c>
       <c r="J419" t="inlineStr"/>
-      <c r="K419" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17591,9 +16611,7 @@
         <v>0</v>
       </c>
       <c r="J420" t="inlineStr"/>
-      <c r="K420" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17632,9 +16650,7 @@
         <v>0</v>
       </c>
       <c r="J421" t="inlineStr"/>
-      <c r="K421" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17673,9 +16689,7 @@
         <v>0</v>
       </c>
       <c r="J422" t="inlineStr"/>
-      <c r="K422" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17714,9 +16728,7 @@
         <v>0</v>
       </c>
       <c r="J423" t="inlineStr"/>
-      <c r="K423" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17755,9 +16767,7 @@
         <v>0</v>
       </c>
       <c r="J424" t="inlineStr"/>
-      <c r="K424" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17796,9 +16806,7 @@
         <v>0</v>
       </c>
       <c r="J425" t="inlineStr"/>
-      <c r="K425" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17837,9 +16845,7 @@
         <v>0</v>
       </c>
       <c r="J426" t="inlineStr"/>
-      <c r="K426" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17878,9 +16884,7 @@
         <v>0</v>
       </c>
       <c r="J427" t="inlineStr"/>
-      <c r="K427" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17919,9 +16923,7 @@
         <v>0</v>
       </c>
       <c r="J428" t="inlineStr"/>
-      <c r="K428" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -17960,9 +16962,7 @@
         <v>0</v>
       </c>
       <c r="J429" t="inlineStr"/>
-      <c r="K429" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18001,9 +17001,7 @@
         <v>0</v>
       </c>
       <c r="J430" t="inlineStr"/>
-      <c r="K430" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18042,9 +17040,7 @@
         <v>0</v>
       </c>
       <c r="J431" t="inlineStr"/>
-      <c r="K431" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18083,9 +17079,7 @@
         <v>0</v>
       </c>
       <c r="J432" t="inlineStr"/>
-      <c r="K432" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18124,9 +17118,7 @@
         <v>0</v>
       </c>
       <c r="J433" t="inlineStr"/>
-      <c r="K433" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18165,9 +17157,7 @@
         <v>0</v>
       </c>
       <c r="J434" t="inlineStr"/>
-      <c r="K434" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18206,9 +17196,7 @@
         <v>0</v>
       </c>
       <c r="J435" t="inlineStr"/>
-      <c r="K435" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18247,9 +17235,7 @@
         <v>0</v>
       </c>
       <c r="J436" t="inlineStr"/>
-      <c r="K436" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18288,9 +17274,7 @@
         <v>0</v>
       </c>
       <c r="J437" t="inlineStr"/>
-      <c r="K437" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18329,9 +17313,7 @@
         <v>0</v>
       </c>
       <c r="J438" t="inlineStr"/>
-      <c r="K438" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18370,9 +17352,7 @@
         <v>0</v>
       </c>
       <c r="J439" t="inlineStr"/>
-      <c r="K439" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18411,9 +17391,7 @@
         <v>0</v>
       </c>
       <c r="J440" t="inlineStr"/>
-      <c r="K440" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18452,9 +17430,7 @@
         <v>0</v>
       </c>
       <c r="J441" t="inlineStr"/>
-      <c r="K441" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18493,9 +17469,7 @@
         <v>0</v>
       </c>
       <c r="J442" t="inlineStr"/>
-      <c r="K442" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18534,9 +17508,7 @@
         <v>0</v>
       </c>
       <c r="J443" t="inlineStr"/>
-      <c r="K443" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18575,9 +17547,7 @@
         <v>0</v>
       </c>
       <c r="J444" t="inlineStr"/>
-      <c r="K444" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18616,9 +17586,7 @@
         <v>0</v>
       </c>
       <c r="J445" t="inlineStr"/>
-      <c r="K445" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18657,9 +17625,7 @@
         <v>0</v>
       </c>
       <c r="J446" t="inlineStr"/>
-      <c r="K446" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18698,9 +17664,7 @@
         <v>0</v>
       </c>
       <c r="J447" t="inlineStr"/>
-      <c r="K447" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18739,9 +17703,7 @@
         <v>0</v>
       </c>
       <c r="J448" t="inlineStr"/>
-      <c r="K448" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18780,9 +17742,7 @@
         <v>0</v>
       </c>
       <c r="J449" t="inlineStr"/>
-      <c r="K449" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18821,9 +17781,7 @@
         <v>0</v>
       </c>
       <c r="J450" t="inlineStr"/>
-      <c r="K450" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K450" t="inlineStr"/>
       <c r="L450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18862,9 +17820,7 @@
         <v>0</v>
       </c>
       <c r="J451" t="inlineStr"/>
-      <c r="K451" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K451" t="inlineStr"/>
       <c r="L451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18903,9 +17859,7 @@
         <v>0</v>
       </c>
       <c r="J452" t="inlineStr"/>
-      <c r="K452" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K452" t="inlineStr"/>
       <c r="L452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18944,9 +17898,7 @@
         <v>0</v>
       </c>
       <c r="J453" t="inlineStr"/>
-      <c r="K453" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K453" t="inlineStr"/>
       <c r="L453" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -18985,9 +17937,7 @@
         <v>0</v>
       </c>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19026,9 +17976,7 @@
         <v>0</v>
       </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19067,9 +18015,7 @@
         <v>0</v>
       </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19108,9 +18054,7 @@
         <v>0</v>
       </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19149,9 +18093,7 @@
         <v>0</v>
       </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19190,9 +18132,7 @@
         <v>0</v>
       </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19231,9 +18171,7 @@
         <v>0</v>
       </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19272,9 +18210,7 @@
         <v>0</v>
       </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19313,9 +18249,7 @@
         <v>0</v>
       </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19354,9 +18288,7 @@
         <v>0</v>
       </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19395,9 +18327,7 @@
         <v>0</v>
       </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19436,9 +18366,7 @@
         <v>0</v>
       </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19477,9 +18405,7 @@
         <v>0</v>
       </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19518,9 +18444,7 @@
         <v>0</v>
       </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19559,9 +18483,7 @@
         <v>0</v>
       </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19600,9 +18522,7 @@
         <v>0</v>
       </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19641,9 +18561,7 @@
         <v>0</v>
       </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19682,9 +18600,7 @@
         <v>0</v>
       </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19723,9 +18639,7 @@
         <v>0</v>
       </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19764,9 +18678,7 @@
         <v>0</v>
       </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19805,9 +18717,7 @@
         <v>0</v>
       </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19846,9 +18756,7 @@
         <v>0</v>
       </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19887,9 +18795,7 @@
         <v>0</v>
       </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19928,9 +18834,7 @@
         <v>0</v>
       </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -19969,9 +18873,7 @@
         <v>0</v>
       </c>
       <c r="J478" t="inlineStr"/>
-      <c r="K478" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K478" t="inlineStr"/>
       <c r="L478" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20010,9 +18912,7 @@
         <v>0</v>
       </c>
       <c r="J479" t="inlineStr"/>
-      <c r="K479" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K479" t="inlineStr"/>
       <c r="L479" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20051,9 +18951,7 @@
         <v>0</v>
       </c>
       <c r="J480" t="inlineStr"/>
-      <c r="K480" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K480" t="inlineStr"/>
       <c r="L480" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20092,9 +18990,7 @@
         <v>0</v>
       </c>
       <c r="J481" t="inlineStr"/>
-      <c r="K481" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K481" t="inlineStr"/>
       <c r="L481" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20133,9 +19029,7 @@
         <v>0</v>
       </c>
       <c r="J482" t="inlineStr"/>
-      <c r="K482" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K482" t="inlineStr"/>
       <c r="L482" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20174,9 +19068,7 @@
         <v>0</v>
       </c>
       <c r="J483" t="inlineStr"/>
-      <c r="K483" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K483" t="inlineStr"/>
       <c r="L483" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20215,9 +19107,7 @@
         <v>0</v>
       </c>
       <c r="J484" t="inlineStr"/>
-      <c r="K484" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K484" t="inlineStr"/>
       <c r="L484" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20256,9 +19146,7 @@
         <v>0</v>
       </c>
       <c r="J485" t="inlineStr"/>
-      <c r="K485" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K485" t="inlineStr"/>
       <c r="L485" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20297,9 +19185,7 @@
         <v>0</v>
       </c>
       <c r="J486" t="inlineStr"/>
-      <c r="K486" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K486" t="inlineStr"/>
       <c r="L486" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20338,9 +19224,7 @@
         <v>0</v>
       </c>
       <c r="J487" t="inlineStr"/>
-      <c r="K487" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K487" t="inlineStr"/>
       <c r="L487" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20379,9 +19263,7 @@
         <v>0</v>
       </c>
       <c r="J488" t="inlineStr"/>
-      <c r="K488" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K488" t="inlineStr"/>
       <c r="L488" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20420,9 +19302,7 @@
         <v>0</v>
       </c>
       <c r="J489" t="inlineStr"/>
-      <c r="K489" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K489" t="inlineStr"/>
       <c r="L489" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20461,9 +19341,7 @@
         <v>0</v>
       </c>
       <c r="J490" t="inlineStr"/>
-      <c r="K490" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K490" t="inlineStr"/>
       <c r="L490" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20502,9 +19380,7 @@
         <v>0</v>
       </c>
       <c r="J491" t="inlineStr"/>
-      <c r="K491" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K491" t="inlineStr"/>
       <c r="L491" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20543,9 +19419,7 @@
         <v>0</v>
       </c>
       <c r="J492" t="inlineStr"/>
-      <c r="K492" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K492" t="inlineStr"/>
       <c r="L492" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20584,9 +19458,7 @@
         <v>0</v>
       </c>
       <c r="J493" t="inlineStr"/>
-      <c r="K493" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K493" t="inlineStr"/>
       <c r="L493" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20625,9 +19497,7 @@
         <v>0</v>
       </c>
       <c r="J494" t="inlineStr"/>
-      <c r="K494" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K494" t="inlineStr"/>
       <c r="L494" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20666,9 +19536,7 @@
         <v>0</v>
       </c>
       <c r="J495" t="inlineStr"/>
-      <c r="K495" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K495" t="inlineStr"/>
       <c r="L495" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20707,9 +19575,7 @@
         <v>0</v>
       </c>
       <c r="J496" t="inlineStr"/>
-      <c r="K496" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K496" t="inlineStr"/>
       <c r="L496" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20748,9 +19614,7 @@
         <v>0</v>
       </c>
       <c r="J497" t="inlineStr"/>
-      <c r="K497" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K497" t="inlineStr"/>
       <c r="L497" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20789,9 +19653,7 @@
         <v>0</v>
       </c>
       <c r="J498" t="inlineStr"/>
-      <c r="K498" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K498" t="inlineStr"/>
       <c r="L498" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20830,9 +19692,7 @@
         <v>0</v>
       </c>
       <c r="J499" t="inlineStr"/>
-      <c r="K499" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K499" t="inlineStr"/>
       <c r="L499" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20871,9 +19731,7 @@
         <v>0</v>
       </c>
       <c r="J500" t="inlineStr"/>
-      <c r="K500" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K500" t="inlineStr"/>
       <c r="L500" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20912,9 +19770,7 @@
         <v>0</v>
       </c>
       <c r="J501" t="inlineStr"/>
-      <c r="K501" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K501" t="inlineStr"/>
       <c r="L501" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20953,9 +19809,7 @@
         <v>0</v>
       </c>
       <c r="J502" t="inlineStr"/>
-      <c r="K502" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K502" t="inlineStr"/>
       <c r="L502" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -20994,9 +19848,7 @@
         <v>0</v>
       </c>
       <c r="J503" t="inlineStr"/>
-      <c r="K503" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K503" t="inlineStr"/>
       <c r="L503" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21035,9 +19887,7 @@
         <v>0</v>
       </c>
       <c r="J504" t="inlineStr"/>
-      <c r="K504" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K504" t="inlineStr"/>
       <c r="L504" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21076,9 +19926,7 @@
         <v>0</v>
       </c>
       <c r="J505" t="inlineStr"/>
-      <c r="K505" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K505" t="inlineStr"/>
       <c r="L505" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21117,9 +19965,7 @@
         <v>0</v>
       </c>
       <c r="J506" t="inlineStr"/>
-      <c r="K506" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K506" t="inlineStr"/>
       <c r="L506" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21158,9 +20004,7 @@
         <v>0</v>
       </c>
       <c r="J507" t="inlineStr"/>
-      <c r="K507" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K507" t="inlineStr"/>
       <c r="L507" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21199,9 +20043,7 @@
         <v>0</v>
       </c>
       <c r="J508" t="inlineStr"/>
-      <c r="K508" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K508" t="inlineStr"/>
       <c r="L508" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21240,9 +20082,7 @@
         <v>0</v>
       </c>
       <c r="J509" t="inlineStr"/>
-      <c r="K509" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K509" t="inlineStr"/>
       <c r="L509" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21281,9 +20121,7 @@
         <v>0</v>
       </c>
       <c r="J510" t="inlineStr"/>
-      <c r="K510" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K510" t="inlineStr"/>
       <c r="L510" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21322,9 +20160,7 @@
         <v>0</v>
       </c>
       <c r="J511" t="inlineStr"/>
-      <c r="K511" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K511" t="inlineStr"/>
       <c r="L511" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21363,9 +20199,7 @@
         <v>0</v>
       </c>
       <c r="J512" t="inlineStr"/>
-      <c r="K512" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K512" t="inlineStr"/>
       <c r="L512" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21404,9 +20238,7 @@
         <v>0</v>
       </c>
       <c r="J513" t="inlineStr"/>
-      <c r="K513" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K513" t="inlineStr"/>
       <c r="L513" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21445,9 +20277,7 @@
         <v>0</v>
       </c>
       <c r="J514" t="inlineStr"/>
-      <c r="K514" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K514" t="inlineStr"/>
       <c r="L514" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21486,9 +20316,7 @@
         <v>0</v>
       </c>
       <c r="J515" t="inlineStr"/>
-      <c r="K515" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K515" t="inlineStr"/>
       <c r="L515" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21527,9 +20355,7 @@
         <v>0</v>
       </c>
       <c r="J516" t="inlineStr"/>
-      <c r="K516" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K516" t="inlineStr"/>
       <c r="L516" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21568,9 +20394,7 @@
         <v>0</v>
       </c>
       <c r="J517" t="inlineStr"/>
-      <c r="K517" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K517" t="inlineStr"/>
       <c r="L517" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21609,9 +20433,7 @@
         <v>0</v>
       </c>
       <c r="J518" t="inlineStr"/>
-      <c r="K518" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K518" t="inlineStr"/>
       <c r="L518" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21650,9 +20472,7 @@
         <v>0</v>
       </c>
       <c r="J519" t="inlineStr"/>
-      <c r="K519" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K519" t="inlineStr"/>
       <c r="L519" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21691,9 +20511,7 @@
         <v>0</v>
       </c>
       <c r="J520" t="inlineStr"/>
-      <c r="K520" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K520" t="inlineStr"/>
       <c r="L520" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21732,9 +20550,7 @@
         <v>0</v>
       </c>
       <c r="J521" t="inlineStr"/>
-      <c r="K521" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K521" t="inlineStr"/>
       <c r="L521" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21773,9 +20589,7 @@
         <v>0</v>
       </c>
       <c r="J522" t="inlineStr"/>
-      <c r="K522" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K522" t="inlineStr"/>
       <c r="L522" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21814,9 +20628,7 @@
         <v>0</v>
       </c>
       <c r="J523" t="inlineStr"/>
-      <c r="K523" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K523" t="inlineStr"/>
       <c r="L523" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21855,9 +20667,7 @@
         <v>0</v>
       </c>
       <c r="J524" t="inlineStr"/>
-      <c r="K524" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K524" t="inlineStr"/>
       <c r="L524" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21896,9 +20706,7 @@
         <v>0</v>
       </c>
       <c r="J525" t="inlineStr"/>
-      <c r="K525" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K525" t="inlineStr"/>
       <c r="L525" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21937,9 +20745,7 @@
         <v>0</v>
       </c>
       <c r="J526" t="inlineStr"/>
-      <c r="K526" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K526" t="inlineStr"/>
       <c r="L526" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -21978,9 +20784,7 @@
         <v>0</v>
       </c>
       <c r="J527" t="inlineStr"/>
-      <c r="K527" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K527" t="inlineStr"/>
       <c r="L527" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22019,9 +20823,7 @@
         <v>0</v>
       </c>
       <c r="J528" t="inlineStr"/>
-      <c r="K528" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K528" t="inlineStr"/>
       <c r="L528" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22060,9 +20862,7 @@
         <v>0</v>
       </c>
       <c r="J529" t="inlineStr"/>
-      <c r="K529" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K529" t="inlineStr"/>
       <c r="L529" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22101,9 +20901,7 @@
         <v>0</v>
       </c>
       <c r="J530" t="inlineStr"/>
-      <c r="K530" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K530" t="inlineStr"/>
       <c r="L530" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22142,9 +20940,7 @@
         <v>0</v>
       </c>
       <c r="J531" t="inlineStr"/>
-      <c r="K531" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K531" t="inlineStr"/>
       <c r="L531" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22183,9 +20979,7 @@
         <v>0</v>
       </c>
       <c r="J532" t="inlineStr"/>
-      <c r="K532" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K532" t="inlineStr"/>
       <c r="L532" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22224,9 +21018,7 @@
         <v>0</v>
       </c>
       <c r="J533" t="inlineStr"/>
-      <c r="K533" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K533" t="inlineStr"/>
       <c r="L533" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22265,9 +21057,7 @@
         <v>0</v>
       </c>
       <c r="J534" t="inlineStr"/>
-      <c r="K534" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K534" t="inlineStr"/>
       <c r="L534" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22306,9 +21096,7 @@
         <v>0</v>
       </c>
       <c r="J535" t="inlineStr"/>
-      <c r="K535" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K535" t="inlineStr"/>
       <c r="L535" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22347,9 +21135,7 @@
         <v>0</v>
       </c>
       <c r="J536" t="inlineStr"/>
-      <c r="K536" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K536" t="inlineStr"/>
       <c r="L536" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22388,9 +21174,7 @@
         <v>0</v>
       </c>
       <c r="J537" t="inlineStr"/>
-      <c r="K537" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K537" t="inlineStr"/>
       <c r="L537" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22429,9 +21213,7 @@
         <v>0</v>
       </c>
       <c r="J538" t="inlineStr"/>
-      <c r="K538" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K538" t="inlineStr"/>
       <c r="L538" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22470,9 +21252,7 @@
         <v>0</v>
       </c>
       <c r="J539" t="inlineStr"/>
-      <c r="K539" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K539" t="inlineStr"/>
       <c r="L539" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22511,9 +21291,7 @@
         <v>0</v>
       </c>
       <c r="J540" t="inlineStr"/>
-      <c r="K540" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K540" t="inlineStr"/>
       <c r="L540" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22552,9 +21330,7 @@
         <v>0</v>
       </c>
       <c r="J541" t="inlineStr"/>
-      <c r="K541" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K541" t="inlineStr"/>
       <c r="L541" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22593,9 +21369,7 @@
         <v>0</v>
       </c>
       <c r="J542" t="inlineStr"/>
-      <c r="K542" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K542" t="inlineStr"/>
       <c r="L542" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22634,9 +21408,7 @@
         <v>0</v>
       </c>
       <c r="J543" t="inlineStr"/>
-      <c r="K543" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K543" t="inlineStr"/>
       <c r="L543" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22675,9 +21447,7 @@
         <v>0</v>
       </c>
       <c r="J544" t="inlineStr"/>
-      <c r="K544" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K544" t="inlineStr"/>
       <c r="L544" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22716,9 +21486,7 @@
         <v>0</v>
       </c>
       <c r="J545" t="inlineStr"/>
-      <c r="K545" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K545" t="inlineStr"/>
       <c r="L545" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22757,9 +21525,7 @@
         <v>0</v>
       </c>
       <c r="J546" t="inlineStr"/>
-      <c r="K546" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K546" t="inlineStr"/>
       <c r="L546" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22798,9 +21564,7 @@
         <v>0</v>
       </c>
       <c r="J547" t="inlineStr"/>
-      <c r="K547" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K547" t="inlineStr"/>
       <c r="L547" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22839,9 +21603,7 @@
         <v>0</v>
       </c>
       <c r="J548" t="inlineStr"/>
-      <c r="K548" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K548" t="inlineStr"/>
       <c r="L548" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22880,9 +21642,7 @@
         <v>0</v>
       </c>
       <c r="J549" t="inlineStr"/>
-      <c r="K549" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K549" t="inlineStr"/>
       <c r="L549" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22921,9 +21681,7 @@
         <v>0</v>
       </c>
       <c r="J550" t="inlineStr"/>
-      <c r="K550" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K550" t="inlineStr"/>
       <c r="L550" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -22962,9 +21720,7 @@
         <v>0</v>
       </c>
       <c r="J551" t="inlineStr"/>
-      <c r="K551" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K551" t="inlineStr"/>
       <c r="L551" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23003,9 +21759,7 @@
         <v>0</v>
       </c>
       <c r="J552" t="inlineStr"/>
-      <c r="K552" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K552" t="inlineStr"/>
       <c r="L552" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23044,9 +21798,7 @@
         <v>0</v>
       </c>
       <c r="J553" t="inlineStr"/>
-      <c r="K553" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K553" t="inlineStr"/>
       <c r="L553" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23085,9 +21837,7 @@
         <v>0</v>
       </c>
       <c r="J554" t="inlineStr"/>
-      <c r="K554" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K554" t="inlineStr"/>
       <c r="L554" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23126,9 +21876,7 @@
         <v>0</v>
       </c>
       <c r="J555" t="inlineStr"/>
-      <c r="K555" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K555" t="inlineStr"/>
       <c r="L555" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23167,9 +21915,7 @@
         <v>0</v>
       </c>
       <c r="J556" t="inlineStr"/>
-      <c r="K556" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K556" t="inlineStr"/>
       <c r="L556" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23208,9 +21954,7 @@
         <v>0</v>
       </c>
       <c r="J557" t="inlineStr"/>
-      <c r="K557" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K557" t="inlineStr"/>
       <c r="L557" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23249,9 +21993,7 @@
         <v>0</v>
       </c>
       <c r="J558" t="inlineStr"/>
-      <c r="K558" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K558" t="inlineStr"/>
       <c r="L558" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23290,9 +22032,7 @@
         <v>0</v>
       </c>
       <c r="J559" t="inlineStr"/>
-      <c r="K559" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K559" t="inlineStr"/>
       <c r="L559" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23331,9 +22071,7 @@
         <v>0</v>
       </c>
       <c r="J560" t="inlineStr"/>
-      <c r="K560" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K560" t="inlineStr"/>
       <c r="L560" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23372,9 +22110,7 @@
         <v>0</v>
       </c>
       <c r="J561" t="inlineStr"/>
-      <c r="K561" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K561" t="inlineStr"/>
       <c r="L561" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23413,9 +22149,7 @@
         <v>0</v>
       </c>
       <c r="J562" t="inlineStr"/>
-      <c r="K562" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K562" t="inlineStr"/>
       <c r="L562" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23454,9 +22188,7 @@
         <v>0</v>
       </c>
       <c r="J563" t="inlineStr"/>
-      <c r="K563" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K563" t="inlineStr"/>
       <c r="L563" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23495,9 +22227,7 @@
         <v>0</v>
       </c>
       <c r="J564" t="inlineStr"/>
-      <c r="K564" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K564" t="inlineStr"/>
       <c r="L564" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23536,9 +22266,7 @@
         <v>0</v>
       </c>
       <c r="J565" t="inlineStr"/>
-      <c r="K565" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K565" t="inlineStr"/>
       <c r="L565" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23577,9 +22305,7 @@
         <v>0</v>
       </c>
       <c r="J566" t="inlineStr"/>
-      <c r="K566" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K566" t="inlineStr"/>
       <c r="L566" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23618,9 +22344,7 @@
         <v>0</v>
       </c>
       <c r="J567" t="inlineStr"/>
-      <c r="K567" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K567" t="inlineStr"/>
       <c r="L567" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23659,9 +22383,7 @@
         <v>0</v>
       </c>
       <c r="J568" t="inlineStr"/>
-      <c r="K568" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K568" t="inlineStr"/>
       <c r="L568" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23700,9 +22422,7 @@
         <v>0</v>
       </c>
       <c r="J569" t="inlineStr"/>
-      <c r="K569" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K569" t="inlineStr"/>
       <c r="L569" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23741,9 +22461,7 @@
         <v>0</v>
       </c>
       <c r="J570" t="inlineStr"/>
-      <c r="K570" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K570" t="inlineStr"/>
       <c r="L570" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23782,9 +22500,7 @@
         <v>0</v>
       </c>
       <c r="J571" t="inlineStr"/>
-      <c r="K571" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K571" t="inlineStr"/>
       <c r="L571" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23823,9 +22539,7 @@
         <v>0</v>
       </c>
       <c r="J572" t="inlineStr"/>
-      <c r="K572" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K572" t="inlineStr"/>
       <c r="L572" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23864,9 +22578,7 @@
         <v>0</v>
       </c>
       <c r="J573" t="inlineStr"/>
-      <c r="K573" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K573" t="inlineStr"/>
       <c r="L573" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23905,9 +22617,7 @@
         <v>0</v>
       </c>
       <c r="J574" t="inlineStr"/>
-      <c r="K574" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K574" t="inlineStr"/>
       <c r="L574" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23946,9 +22656,7 @@
         <v>0</v>
       </c>
       <c r="J575" t="inlineStr"/>
-      <c r="K575" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K575" t="inlineStr"/>
       <c r="L575" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -23987,9 +22695,7 @@
         <v>0</v>
       </c>
       <c r="J576" t="inlineStr"/>
-      <c r="K576" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K576" t="inlineStr"/>
       <c r="L576" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24028,9 +22734,7 @@
         <v>0</v>
       </c>
       <c r="J577" t="inlineStr"/>
-      <c r="K577" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K577" t="inlineStr"/>
       <c r="L577" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -24066,19 +22770,17 @@
         <v>0</v>
       </c>
       <c r="I578" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J578" t="inlineStr"/>
-      <c r="K578" t="n">
-        <v>4.12</v>
-      </c>
+      <c r="K578" t="inlineStr"/>
       <c r="L578" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M578" t="n">
-        <v>1.026553398058252</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579">
@@ -24107,11 +22809,15 @@
         <v>0</v>
       </c>
       <c r="I579" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J579" t="inlineStr"/>
       <c r="K579" t="inlineStr"/>
-      <c r="L579" t="inlineStr"/>
+      <c r="L579" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M579" t="n">
         <v>1</v>
       </c>
@@ -24146,7 +22852,11 @@
       </c>
       <c r="J580" t="inlineStr"/>
       <c r="K580" t="inlineStr"/>
-      <c r="L580" t="inlineStr"/>
+      <c r="L580" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M580" t="n">
         <v>1</v>
       </c>
@@ -24177,14 +22887,16 @@
         <v>0</v>
       </c>
       <c r="I581" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J581" t="inlineStr"/>
       <c r="K581" t="inlineStr"/>
-      <c r="L581" t="inlineStr"/>
-      <c r="M581" t="n">
-        <v>1</v>
-      </c>
+      <c r="L581" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M581" t="inlineStr"/>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
@@ -29252,7 +27964,7 @@
         <v>0</v>
       </c>
       <c r="I726" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J726" t="inlineStr"/>
       <c r="K726" t="inlineStr"/>
@@ -29287,7 +27999,7 @@
         <v>0</v>
       </c>
       <c r="I727" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J727" t="inlineStr"/>
       <c r="K727" t="inlineStr"/>
@@ -29322,7 +28034,7 @@
         <v>0</v>
       </c>
       <c r="I728" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J728" t="inlineStr"/>
       <c r="K728" t="inlineStr"/>

--- a/BackTest/2019-10-29 BackTest PLY.xlsx
+++ b/BackTest/2019-10-29 BackTest PLY.xlsx
@@ -4543,7 +4543,7 @@
         <v>-5138201.147700001</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-5663657.960800001</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-5757612.645800001</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-5447417.362600001</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-5824366.743400001</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-5537853.754900001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-5846860.689600001</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-5934238.689600001</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-5773079.551300001</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-6057007.739800001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-6399993.381600002</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-5908448.208300002</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5697763.289300002</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-6414429.433800003</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-6205880.465300002</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5810265.063700002</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5434,7 +5434,7 @@
         <v>-5628942.418400002</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5467,7 +5467,7 @@
         <v>-6154089.418400002</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5533,7 +5533,7 @@
         <v>-6317718.592900001</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5566,7 +5566,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5632,7 +5632,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5665,7 +5665,7 @@
         <v>-5967052.628300002</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5698,7 +5698,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5731,7 +5731,7 @@
         <v>-6328270.073100002</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-6552100.850000001</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-4112435.6328</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-4112425.6328</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4247927.5171</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4461578.4505</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-5045340.238799999</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4903910.359399999</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-4767271.534999999</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-4903213.2541</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-4900100.061799999</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-4874090.061799999</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-4582488.679299999</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8668,7 +8668,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
       <c r="J251" t="inlineStr"/>
@@ -8701,7 +8701,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
       <c r="J252" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8767,7 +8767,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
       <c r="J254" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-4864372.763399999</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-4787499.273799999</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-4787489.273799999</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9064,7 +9064,7 @@
         <v>-4937139.885999999</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-5090760.408599999</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-5002418.387200001</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -17776,7 +17776,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H527" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17809,7 +17809,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H528" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17842,7 +17842,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H529" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17875,7 +17875,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H530" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -17908,7 +17908,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H531" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17941,7 +17941,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H532" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -17974,7 +17974,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H533" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18007,7 +18007,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H534" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18040,7 +18040,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H535" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18073,7 +18073,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18106,7 +18106,7 @@
         <v>-4908953.709338464</v>
       </c>
       <c r="H537" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18139,7 +18139,7 @@
         <v>19399243.40596154</v>
       </c>
       <c r="H538" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-163513946.3966077</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-163488605.1158077</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-163170516.2224077</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-163369161.2224077</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-163456821.2224077</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-163419221.2224077</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-163510184.0272077</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-163402143.5362077</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-163346363.8000077</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-160081017.2590778</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-160271075.7753778</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-160109664.2585076</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-160322347.0387076</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22066,7 +22066,7 @@
         <v>-160566548.2110077</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -22099,7 +22099,7 @@
         <v>-160603008.2110077</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22165,7 +22165,7 @@
         <v>-160603008.2110077</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23650,2820 +23650,2942 @@
         <v>-164614789.6984077</v>
       </c>
       <c r="H705" t="n">
-        <v>1</v>
-      </c>
-      <c r="I705" t="n">
-        <v>4.14</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
-      <c r="K705" t="inlineStr">
+      <c r="K705" t="inlineStr"/>
+      <c r="L705" t="n">
+        <v>1</v>
+      </c>
+      <c r="M705" t="inlineStr"/>
+    </row>
+    <row r="706">
+      <c r="A706" s="1" t="n">
+        <v>704</v>
+      </c>
+      <c r="B706" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C706" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D706" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E706" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F706" t="n">
+        <v>411546.0333</v>
+      </c>
+      <c r="G706" t="n">
+        <v>-164203243.6651077</v>
+      </c>
+      <c r="H706" t="n">
+        <v>0</v>
+      </c>
+      <c r="I706" t="inlineStr"/>
+      <c r="J706" t="inlineStr"/>
+      <c r="K706" t="inlineStr"/>
+      <c r="L706" t="n">
+        <v>1</v>
+      </c>
+      <c r="M706" t="inlineStr"/>
+    </row>
+    <row r="707">
+      <c r="A707" s="1" t="n">
+        <v>705</v>
+      </c>
+      <c r="B707" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C707" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D707" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E707" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F707" t="n">
+        <v>378469.1996</v>
+      </c>
+      <c r="G707" t="n">
+        <v>-164203243.6651077</v>
+      </c>
+      <c r="H707" t="n">
+        <v>0</v>
+      </c>
+      <c r="I707" t="inlineStr"/>
+      <c r="J707" t="inlineStr"/>
+      <c r="K707" t="inlineStr"/>
+      <c r="L707" t="n">
+        <v>1</v>
+      </c>
+      <c r="M707" t="inlineStr"/>
+    </row>
+    <row r="708">
+      <c r="A708" s="1" t="n">
+        <v>706</v>
+      </c>
+      <c r="B708" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C708" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D708" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E708" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F708" t="n">
+        <v>291030.9029</v>
+      </c>
+      <c r="G708" t="n">
+        <v>-164203243.6651077</v>
+      </c>
+      <c r="H708" t="n">
+        <v>0</v>
+      </c>
+      <c r="I708" t="inlineStr"/>
+      <c r="J708" t="inlineStr"/>
+      <c r="K708" t="inlineStr"/>
+      <c r="L708" t="n">
+        <v>1</v>
+      </c>
+      <c r="M708" t="inlineStr"/>
+    </row>
+    <row r="709">
+      <c r="A709" s="1" t="n">
+        <v>707</v>
+      </c>
+      <c r="B709" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C709" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D709" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E709" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F709" t="n">
+        <v>125237.7984</v>
+      </c>
+      <c r="G709" t="n">
+        <v>-164328481.4635077</v>
+      </c>
+      <c r="H709" t="n">
+        <v>0</v>
+      </c>
+      <c r="I709" t="inlineStr"/>
+      <c r="J709" t="inlineStr"/>
+      <c r="K709" t="inlineStr"/>
+      <c r="L709" t="n">
+        <v>1</v>
+      </c>
+      <c r="M709" t="inlineStr"/>
+    </row>
+    <row r="710">
+      <c r="A710" s="1" t="n">
+        <v>708</v>
+      </c>
+      <c r="B710" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C710" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D710" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E710" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F710" t="n">
+        <v>308475.3889</v>
+      </c>
+      <c r="G710" t="n">
+        <v>-164328481.4635077</v>
+      </c>
+      <c r="H710" t="n">
+        <v>0</v>
+      </c>
+      <c r="I710" t="inlineStr"/>
+      <c r="J710" t="inlineStr"/>
+      <c r="K710" t="inlineStr"/>
+      <c r="L710" t="n">
+        <v>1</v>
+      </c>
+      <c r="M710" t="inlineStr"/>
+    </row>
+    <row r="711">
+      <c r="A711" s="1" t="n">
+        <v>709</v>
+      </c>
+      <c r="B711" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C711" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D711" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E711" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F711" t="n">
+        <v>178916.6693</v>
+      </c>
+      <c r="G711" t="n">
+        <v>-164149564.7942077</v>
+      </c>
+      <c r="H711" t="n">
+        <v>0</v>
+      </c>
+      <c r="I711" t="inlineStr"/>
+      <c r="J711" t="inlineStr"/>
+      <c r="K711" t="inlineStr"/>
+      <c r="L711" t="n">
+        <v>1</v>
+      </c>
+      <c r="M711" t="inlineStr"/>
+    </row>
+    <row r="712">
+      <c r="A712" s="1" t="n">
+        <v>710</v>
+      </c>
+      <c r="B712" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C712" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D712" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E712" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F712" t="n">
+        <v>310951.0789</v>
+      </c>
+      <c r="G712" t="n">
+        <v>-164460515.8731077</v>
+      </c>
+      <c r="H712" t="n">
+        <v>0</v>
+      </c>
+      <c r="I712" t="inlineStr"/>
+      <c r="J712" t="inlineStr"/>
+      <c r="K712" t="inlineStr"/>
+      <c r="L712" t="n">
+        <v>1</v>
+      </c>
+      <c r="M712" t="inlineStr"/>
+    </row>
+    <row r="713">
+      <c r="A713" s="1" t="n">
+        <v>711</v>
+      </c>
+      <c r="B713" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C713" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D713" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E713" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F713" t="n">
+        <v>139542.025</v>
+      </c>
+      <c r="G713" t="n">
+        <v>-164320973.8481077</v>
+      </c>
+      <c r="H713" t="n">
+        <v>0</v>
+      </c>
+      <c r="I713" t="inlineStr"/>
+      <c r="J713" t="inlineStr"/>
+      <c r="K713" t="inlineStr"/>
+      <c r="L713" t="n">
+        <v>1</v>
+      </c>
+      <c r="M713" t="inlineStr"/>
+    </row>
+    <row r="714">
+      <c r="A714" s="1" t="n">
+        <v>712</v>
+      </c>
+      <c r="B714" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C714" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D714" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E714" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F714" t="n">
+        <v>115104.3079</v>
+      </c>
+      <c r="G714" t="n">
+        <v>-164436078.1560077</v>
+      </c>
+      <c r="H714" t="n">
+        <v>0</v>
+      </c>
+      <c r="I714" t="inlineStr"/>
+      <c r="J714" t="inlineStr"/>
+      <c r="K714" t="inlineStr"/>
+      <c r="L714" t="n">
+        <v>1</v>
+      </c>
+      <c r="M714" t="inlineStr"/>
+    </row>
+    <row r="715">
+      <c r="A715" s="1" t="n">
+        <v>713</v>
+      </c>
+      <c r="B715" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C715" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D715" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E715" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F715" t="n">
+        <v>11</v>
+      </c>
+      <c r="G715" t="n">
+        <v>-164436067.1560077</v>
+      </c>
+      <c r="H715" t="n">
+        <v>0</v>
+      </c>
+      <c r="I715" t="inlineStr"/>
+      <c r="J715" t="inlineStr"/>
+      <c r="K715" t="inlineStr"/>
+      <c r="L715" t="n">
+        <v>1</v>
+      </c>
+      <c r="M715" t="inlineStr"/>
+    </row>
+    <row r="716">
+      <c r="A716" s="1" t="n">
+        <v>714</v>
+      </c>
+      <c r="B716" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C716" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D716" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E716" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F716" t="n">
+        <v>418059.9301</v>
+      </c>
+      <c r="G716" t="n">
+        <v>-164018007.2259077</v>
+      </c>
+      <c r="H716" t="n">
+        <v>0</v>
+      </c>
+      <c r="I716" t="inlineStr"/>
+      <c r="J716" t="inlineStr"/>
+      <c r="K716" t="inlineStr"/>
+      <c r="L716" t="n">
+        <v>1</v>
+      </c>
+      <c r="M716" t="inlineStr"/>
+    </row>
+    <row r="717">
+      <c r="A717" s="1" t="n">
+        <v>715</v>
+      </c>
+      <c r="B717" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C717" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D717" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E717" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F717" t="n">
+        <v>443819.8391</v>
+      </c>
+      <c r="G717" t="n">
+        <v>-164018007.2259077</v>
+      </c>
+      <c r="H717" t="n">
+        <v>0</v>
+      </c>
+      <c r="I717" t="inlineStr"/>
+      <c r="J717" t="inlineStr"/>
+      <c r="K717" t="inlineStr"/>
+      <c r="L717" t="n">
+        <v>1</v>
+      </c>
+      <c r="M717" t="inlineStr"/>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>716</v>
+      </c>
+      <c r="B718" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="C718" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D718" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E718" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F718" t="n">
+        <v>303837.2927</v>
+      </c>
+      <c r="G718" t="n">
+        <v>-164321844.5186077</v>
+      </c>
+      <c r="H718" t="n">
+        <v>0</v>
+      </c>
+      <c r="I718" t="inlineStr"/>
+      <c r="J718" t="inlineStr"/>
+      <c r="K718" t="inlineStr"/>
+      <c r="L718" t="n">
+        <v>1</v>
+      </c>
+      <c r="M718" t="inlineStr"/>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>717</v>
+      </c>
+      <c r="B719" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C719" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D719" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E719" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F719" t="n">
+        <v>418263.9792</v>
+      </c>
+      <c r="G719" t="n">
+        <v>-164321844.5186077</v>
+      </c>
+      <c r="H719" t="n">
+        <v>0</v>
+      </c>
+      <c r="I719" t="inlineStr"/>
+      <c r="J719" t="inlineStr"/>
+      <c r="K719" t="inlineStr"/>
+      <c r="L719" t="n">
+        <v>1</v>
+      </c>
+      <c r="M719" t="inlineStr"/>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>718</v>
+      </c>
+      <c r="B720" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C720" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D720" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E720" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F720" t="n">
+        <v>364437.1208</v>
+      </c>
+      <c r="G720" t="n">
+        <v>-164321844.5186077</v>
+      </c>
+      <c r="H720" t="n">
+        <v>0</v>
+      </c>
+      <c r="I720" t="inlineStr"/>
+      <c r="J720" t="inlineStr"/>
+      <c r="K720" t="inlineStr"/>
+      <c r="L720" t="n">
+        <v>1</v>
+      </c>
+      <c r="M720" t="inlineStr"/>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>719</v>
+      </c>
+      <c r="B721" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C721" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D721" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E721" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F721" t="n">
+        <v>353260</v>
+      </c>
+      <c r="G721" t="n">
+        <v>-163968584.5186077</v>
+      </c>
+      <c r="H721" t="n">
+        <v>0</v>
+      </c>
+      <c r="I721" t="inlineStr"/>
+      <c r="J721" t="inlineStr"/>
+      <c r="K721" t="inlineStr"/>
+      <c r="L721" t="n">
+        <v>1</v>
+      </c>
+      <c r="M721" t="inlineStr"/>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B722" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C722" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D722" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E722" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F722" t="n">
+        <v>35554.5745</v>
+      </c>
+      <c r="G722" t="n">
+        <v>-163968584.5186077</v>
+      </c>
+      <c r="H722" t="n">
+        <v>0</v>
+      </c>
+      <c r="I722" t="inlineStr"/>
+      <c r="J722" t="inlineStr"/>
+      <c r="K722" t="inlineStr"/>
+      <c r="L722" t="n">
+        <v>1</v>
+      </c>
+      <c r="M722" t="inlineStr"/>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>721</v>
+      </c>
+      <c r="B723" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C723" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D723" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E723" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F723" t="n">
+        <v>250440.5255</v>
+      </c>
+      <c r="G723" t="n">
+        <v>-163968584.5186077</v>
+      </c>
+      <c r="H723" t="n">
+        <v>0</v>
+      </c>
+      <c r="I723" t="inlineStr"/>
+      <c r="J723" t="inlineStr"/>
+      <c r="K723" t="inlineStr"/>
+      <c r="L723" t="n">
+        <v>1</v>
+      </c>
+      <c r="M723" t="inlineStr"/>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B724" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C724" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D724" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E724" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F724" t="n">
+        <v>436039.4973</v>
+      </c>
+      <c r="G724" t="n">
+        <v>-163968584.5186077</v>
+      </c>
+      <c r="H724" t="n">
+        <v>0</v>
+      </c>
+      <c r="I724" t="inlineStr"/>
+      <c r="J724" t="inlineStr"/>
+      <c r="K724" t="inlineStr"/>
+      <c r="L724" t="n">
+        <v>1</v>
+      </c>
+      <c r="M724" t="inlineStr"/>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>723</v>
+      </c>
+      <c r="B725" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C725" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D725" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E725" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F725" t="n">
+        <v>277622.0273</v>
+      </c>
+      <c r="G725" t="n">
+        <v>-164246206.5459077</v>
+      </c>
+      <c r="H725" t="n">
+        <v>0</v>
+      </c>
+      <c r="I725" t="inlineStr"/>
+      <c r="J725" t="inlineStr"/>
+      <c r="K725" t="inlineStr"/>
+      <c r="L725" t="n">
+        <v>1</v>
+      </c>
+      <c r="M725" t="inlineStr"/>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>724</v>
+      </c>
+      <c r="B726" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C726" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D726" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E726" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F726" t="n">
+        <v>320959.1124</v>
+      </c>
+      <c r="G726" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H726" t="n">
+        <v>0</v>
+      </c>
+      <c r="I726" t="inlineStr"/>
+      <c r="J726" t="inlineStr"/>
+      <c r="K726" t="inlineStr"/>
+      <c r="L726" t="n">
+        <v>1</v>
+      </c>
+      <c r="M726" t="inlineStr"/>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>725</v>
+      </c>
+      <c r="B727" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C727" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D727" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E727" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F727" t="n">
+        <v>415008.3005</v>
+      </c>
+      <c r="G727" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H727" t="n">
+        <v>0</v>
+      </c>
+      <c r="I727" t="inlineStr"/>
+      <c r="J727" t="inlineStr"/>
+      <c r="K727" t="inlineStr"/>
+      <c r="L727" t="n">
+        <v>1</v>
+      </c>
+      <c r="M727" t="inlineStr"/>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>726</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C728" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D728" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E728" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F728" t="n">
+        <v>952052.8973</v>
+      </c>
+      <c r="G728" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H728" t="n">
+        <v>0</v>
+      </c>
+      <c r="I728" t="inlineStr"/>
+      <c r="J728" t="inlineStr"/>
+      <c r="K728" t="inlineStr"/>
+      <c r="L728" t="n">
+        <v>1</v>
+      </c>
+      <c r="M728" t="inlineStr"/>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>727</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C729" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D729" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E729" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F729" t="n">
+        <v>272967.6541</v>
+      </c>
+      <c r="G729" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H729" t="n">
+        <v>0</v>
+      </c>
+      <c r="I729" t="inlineStr"/>
+      <c r="J729" t="inlineStr"/>
+      <c r="K729" t="inlineStr"/>
+      <c r="L729" t="n">
+        <v>1</v>
+      </c>
+      <c r="M729" t="inlineStr"/>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>728</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C730" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D730" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E730" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F730" t="n">
+        <v>21129.9097</v>
+      </c>
+      <c r="G730" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H730" t="n">
+        <v>0</v>
+      </c>
+      <c r="I730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr"/>
+      <c r="L730" t="n">
+        <v>1</v>
+      </c>
+      <c r="M730" t="inlineStr"/>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>729</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C731" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D731" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E731" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F731" t="n">
+        <v>49367.1084</v>
+      </c>
+      <c r="G731" t="n">
+        <v>-163925247.4335077</v>
+      </c>
+      <c r="H731" t="n">
+        <v>0</v>
+      </c>
+      <c r="I731" t="inlineStr"/>
+      <c r="J731" t="inlineStr"/>
+      <c r="K731" t="inlineStr"/>
+      <c r="L731" t="n">
+        <v>1</v>
+      </c>
+      <c r="M731" t="inlineStr"/>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>730</v>
+      </c>
+      <c r="B732" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C732" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D732" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E732" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F732" t="n">
+        <v>213384.8503</v>
+      </c>
+      <c r="G732" t="n">
+        <v>-164138632.2838078</v>
+      </c>
+      <c r="H732" t="n">
+        <v>0</v>
+      </c>
+      <c r="I732" t="inlineStr"/>
+      <c r="J732" t="inlineStr"/>
+      <c r="K732" t="inlineStr"/>
+      <c r="L732" t="n">
+        <v>1</v>
+      </c>
+      <c r="M732" t="inlineStr"/>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>731</v>
+      </c>
+      <c r="B733" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D733" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E733" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F733" t="n">
+        <v>8240.824000000001</v>
+      </c>
+      <c r="G733" t="n">
+        <v>-164146873.1078078</v>
+      </c>
+      <c r="H733" t="n">
+        <v>0</v>
+      </c>
+      <c r="I733" t="inlineStr"/>
+      <c r="J733" t="inlineStr"/>
+      <c r="K733" t="inlineStr"/>
+      <c r="L733" t="n">
+        <v>1</v>
+      </c>
+      <c r="M733" t="inlineStr"/>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>732</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C734" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D734" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E734" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F734" t="n">
+        <v>233877.3071</v>
+      </c>
+      <c r="G734" t="n">
+        <v>-163912995.8007078</v>
+      </c>
+      <c r="H734" t="n">
+        <v>0</v>
+      </c>
+      <c r="I734" t="inlineStr"/>
+      <c r="J734" t="inlineStr"/>
+      <c r="K734" t="inlineStr"/>
+      <c r="L734" t="n">
+        <v>1</v>
+      </c>
+      <c r="M734" t="inlineStr"/>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>733</v>
+      </c>
+      <c r="B735" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C735" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D735" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E735" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F735" t="n">
+        <v>277235.9464</v>
+      </c>
+      <c r="G735" t="n">
+        <v>-163635759.8543078</v>
+      </c>
+      <c r="H735" t="n">
+        <v>0</v>
+      </c>
+      <c r="I735" t="inlineStr"/>
+      <c r="J735" t="inlineStr"/>
+      <c r="K735" t="inlineStr"/>
+      <c r="L735" t="n">
+        <v>1</v>
+      </c>
+      <c r="M735" t="inlineStr"/>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>734</v>
+      </c>
+      <c r="B736" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D736" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E736" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F736" t="n">
+        <v>1818</v>
+      </c>
+      <c r="G736" t="n">
+        <v>-163637577.8543078</v>
+      </c>
+      <c r="H736" t="n">
+        <v>0</v>
+      </c>
+      <c r="I736" t="inlineStr"/>
+      <c r="J736" t="inlineStr"/>
+      <c r="K736" t="inlineStr"/>
+      <c r="L736" t="n">
+        <v>1</v>
+      </c>
+      <c r="M736" t="inlineStr"/>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>735</v>
+      </c>
+      <c r="B737" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C737" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D737" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E737" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F737" t="n">
+        <v>872918.0978</v>
+      </c>
+      <c r="G737" t="n">
+        <v>-163637577.8543078</v>
+      </c>
+      <c r="H737" t="n">
+        <v>0</v>
+      </c>
+      <c r="I737" t="inlineStr"/>
+      <c r="J737" t="inlineStr"/>
+      <c r="K737" t="inlineStr"/>
+      <c r="L737" t="n">
+        <v>1</v>
+      </c>
+      <c r="M737" t="inlineStr"/>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>736</v>
+      </c>
+      <c r="B738" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C738" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D738" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E738" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F738" t="n">
+        <v>371807.0386</v>
+      </c>
+      <c r="G738" t="n">
+        <v>-164009384.8929078</v>
+      </c>
+      <c r="H738" t="n">
+        <v>0</v>
+      </c>
+      <c r="I738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr"/>
+      <c r="L738" t="n">
+        <v>1</v>
+      </c>
+      <c r="M738" t="inlineStr"/>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>737</v>
+      </c>
+      <c r="B739" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C739" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D739" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E739" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F739" t="n">
+        <v>46928.5856</v>
+      </c>
+      <c r="G739" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H739" t="n">
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J739" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K739" t="inlineStr"/>
+      <c r="L739" t="n">
+        <v>1</v>
+      </c>
+      <c r="M739" t="inlineStr"/>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>738</v>
+      </c>
+      <c r="B740" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C740" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D740" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E740" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F740" t="n">
+        <v>361749.2388</v>
+      </c>
+      <c r="G740" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H740" t="n">
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J740" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L740" t="n">
+        <v>1</v>
+      </c>
+      <c r="M740" t="inlineStr"/>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>739</v>
+      </c>
+      <c r="B741" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C741" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D741" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E741" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F741" t="n">
+        <v>367391.8389</v>
+      </c>
+      <c r="G741" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H741" t="n">
+        <v>0</v>
+      </c>
+      <c r="I741" t="inlineStr"/>
+      <c r="J741" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L741" t="n">
+        <v>1</v>
+      </c>
+      <c r="M741" t="inlineStr"/>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>740</v>
+      </c>
+      <c r="B742" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C742" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D742" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E742" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F742" t="n">
+        <v>219330.5189</v>
+      </c>
+      <c r="G742" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H742" t="n">
+        <v>0</v>
+      </c>
+      <c r="I742" t="inlineStr"/>
+      <c r="J742" t="inlineStr"/>
+      <c r="K742" t="inlineStr"/>
+      <c r="L742" t="n">
+        <v>1</v>
+      </c>
+      <c r="M742" t="inlineStr"/>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>741</v>
+      </c>
+      <c r="B743" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C743" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D743" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E743" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F743" t="n">
+        <v>202301.3208</v>
+      </c>
+      <c r="G743" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H743" t="n">
+        <v>0</v>
+      </c>
+      <c r="I743" t="inlineStr"/>
+      <c r="J743" t="inlineStr"/>
+      <c r="K743" t="inlineStr"/>
+      <c r="L743" t="n">
+        <v>1</v>
+      </c>
+      <c r="M743" t="inlineStr"/>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>742</v>
+      </c>
+      <c r="B744" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D744" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E744" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F744" t="n">
+        <v>160660</v>
+      </c>
+      <c r="G744" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H744" t="n">
+        <v>0</v>
+      </c>
+      <c r="I744" t="inlineStr"/>
+      <c r="J744" t="inlineStr"/>
+      <c r="K744" t="inlineStr"/>
+      <c r="L744" t="n">
+        <v>1</v>
+      </c>
+      <c r="M744" t="inlineStr"/>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>743</v>
+      </c>
+      <c r="B745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F745" t="n">
+        <v>91790.1747</v>
+      </c>
+      <c r="G745" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H745" t="n">
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J745" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K745" t="inlineStr"/>
+      <c r="L745" t="n">
+        <v>1</v>
+      </c>
+      <c r="M745" t="inlineStr"/>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>744</v>
+      </c>
+      <c r="B746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F746" t="n">
+        <v>197691.0327</v>
+      </c>
+      <c r="G746" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H746" t="n">
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J746" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L746" t="n">
+        <v>1</v>
+      </c>
+      <c r="M746" t="inlineStr"/>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>745</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F747" t="n">
+        <v>400813.102</v>
+      </c>
+      <c r="G747" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H747" t="n">
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J747" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L747" t="n">
+        <v>1</v>
+      </c>
+      <c r="M747" t="inlineStr"/>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>746</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F748" t="n">
+        <v>87134.48330000001</v>
+      </c>
+      <c r="G748" t="n">
+        <v>-163962456.3073078</v>
+      </c>
+      <c r="H748" t="n">
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J748" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K748" t="inlineStr"/>
+      <c r="L748" t="n">
+        <v>1</v>
+      </c>
+      <c r="M748" t="inlineStr"/>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>747</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C749" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D749" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E749" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F749" t="n">
+        <v>231548.2414</v>
+      </c>
+      <c r="G749" t="n">
+        <v>-163730908.0659078</v>
+      </c>
+      <c r="H749" t="n">
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J749" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L749" t="n">
+        <v>1</v>
+      </c>
+      <c r="M749" t="inlineStr"/>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>748</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C750" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D750" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E750" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F750" t="n">
+        <v>601684.7731</v>
+      </c>
+      <c r="G750" t="n">
+        <v>-164332592.8390078</v>
+      </c>
+      <c r="H750" t="n">
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J750" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K750" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L705" t="n">
-        <v>1</v>
-      </c>
-      <c r="M705" t="inlineStr"/>
-    </row>
-    <row r="706">
-      <c r="A706" s="1" t="n">
-        <v>704</v>
-      </c>
-      <c r="B706" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C706" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D706" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E706" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F706" t="n">
-        <v>411546.0333</v>
-      </c>
-      <c r="G706" t="n">
-        <v>-164203243.6651077</v>
-      </c>
-      <c r="H706" t="n">
-        <v>1</v>
-      </c>
-      <c r="I706" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J706" t="inlineStr"/>
-      <c r="K706" t="inlineStr">
+      <c r="L750" t="n">
+        <v>1</v>
+      </c>
+      <c r="M750" t="inlineStr"/>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>749</v>
+      </c>
+      <c r="B751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F751" t="n">
+        <v>24043.836</v>
+      </c>
+      <c r="G751" t="n">
+        <v>-164332592.8390078</v>
+      </c>
+      <c r="H751" t="n">
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J751" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K751" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L706" t="n">
-        <v>1</v>
-      </c>
-      <c r="M706" t="inlineStr"/>
-    </row>
-    <row r="707">
-      <c r="A707" s="1" t="n">
-        <v>705</v>
-      </c>
-      <c r="B707" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C707" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D707" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E707" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F707" t="n">
-        <v>378469.1996</v>
-      </c>
-      <c r="G707" t="n">
-        <v>-164203243.6651077</v>
-      </c>
-      <c r="H707" t="n">
-        <v>1</v>
-      </c>
-      <c r="I707" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J707" t="inlineStr"/>
-      <c r="K707" t="inlineStr">
+      <c r="L751" t="n">
+        <v>1</v>
+      </c>
+      <c r="M751" t="inlineStr"/>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>750</v>
+      </c>
+      <c r="B752" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C752" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="D752" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E752" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="F752" t="n">
+        <v>26648.0255</v>
+      </c>
+      <c r="G752" t="n">
+        <v>-164332592.8390078</v>
+      </c>
+      <c r="H752" t="n">
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J752" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K752" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L707" t="n">
-        <v>1</v>
-      </c>
-      <c r="M707" t="inlineStr"/>
-    </row>
-    <row r="708">
-      <c r="A708" s="1" t="n">
-        <v>706</v>
-      </c>
-      <c r="B708" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C708" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D708" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E708" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F708" t="n">
-        <v>291030.9029</v>
-      </c>
-      <c r="G708" t="n">
-        <v>-164203243.6651077</v>
-      </c>
-      <c r="H708" t="n">
-        <v>1</v>
-      </c>
-      <c r="I708" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J708" t="inlineStr"/>
-      <c r="K708" t="inlineStr">
+      <c r="L752" t="n">
+        <v>1</v>
+      </c>
+      <c r="M752" t="inlineStr"/>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>751</v>
+      </c>
+      <c r="B753" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C753" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D753" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E753" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F753" t="n">
+        <v>200749.4672</v>
+      </c>
+      <c r="G753" t="n">
+        <v>-164131843.3718078</v>
+      </c>
+      <c r="H753" t="n">
+        <v>1</v>
+      </c>
+      <c r="I753" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="J753" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K753" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L708" t="n">
-        <v>1</v>
-      </c>
-      <c r="M708" t="inlineStr"/>
-    </row>
-    <row r="709">
-      <c r="A709" s="1" t="n">
-        <v>707</v>
-      </c>
-      <c r="B709" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C709" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D709" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E709" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F709" t="n">
-        <v>125237.7984</v>
-      </c>
-      <c r="G709" t="n">
-        <v>-164328481.4635077</v>
-      </c>
-      <c r="H709" t="n">
-        <v>1</v>
-      </c>
-      <c r="I709" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J709" t="inlineStr"/>
-      <c r="K709" t="inlineStr">
+      <c r="L753" t="n">
+        <v>1</v>
+      </c>
+      <c r="M753" t="inlineStr"/>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>752</v>
+      </c>
+      <c r="B754" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D754" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E754" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F754" t="n">
+        <v>10</v>
+      </c>
+      <c r="G754" t="n">
+        <v>-164131833.3718078</v>
+      </c>
+      <c r="H754" t="n">
+        <v>1</v>
+      </c>
+      <c r="I754" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J754" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K754" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L709" t="n">
-        <v>1</v>
-      </c>
-      <c r="M709" t="inlineStr"/>
-    </row>
-    <row r="710">
-      <c r="A710" s="1" t="n">
-        <v>708</v>
-      </c>
-      <c r="B710" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C710" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D710" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E710" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F710" t="n">
-        <v>308475.3889</v>
-      </c>
-      <c r="G710" t="n">
-        <v>-164328481.4635077</v>
-      </c>
-      <c r="H710" t="n">
-        <v>1</v>
-      </c>
-      <c r="I710" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr">
+      <c r="L754" t="n">
+        <v>1</v>
+      </c>
+      <c r="M754" t="inlineStr"/>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>753</v>
+      </c>
+      <c r="B755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F755" t="n">
+        <v>652066.9007</v>
+      </c>
+      <c r="G755" t="n">
+        <v>-164131833.3718078</v>
+      </c>
+      <c r="H755" t="n">
+        <v>1</v>
+      </c>
+      <c r="I755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J755" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K755" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L710" t="n">
-        <v>1</v>
-      </c>
-      <c r="M710" t="inlineStr"/>
-    </row>
-    <row r="711">
-      <c r="A711" s="1" t="n">
-        <v>709</v>
-      </c>
-      <c r="B711" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C711" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D711" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E711" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F711" t="n">
-        <v>178916.6693</v>
-      </c>
-      <c r="G711" t="n">
-        <v>-164149564.7942077</v>
-      </c>
-      <c r="H711" t="n">
-        <v>1</v>
-      </c>
-      <c r="I711" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr">
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
+      <c r="M755" t="inlineStr"/>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>754</v>
+      </c>
+      <c r="B756" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C756" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D756" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E756" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F756" t="n">
+        <v>126178.0395</v>
+      </c>
+      <c r="G756" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H756" t="n">
+        <v>1</v>
+      </c>
+      <c r="I756" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J756" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K756" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L711" t="n">
-        <v>1</v>
-      </c>
-      <c r="M711" t="inlineStr"/>
-    </row>
-    <row r="712">
-      <c r="A712" s="1" t="n">
-        <v>710</v>
-      </c>
-      <c r="B712" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C712" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D712" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E712" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F712" t="n">
-        <v>310951.0789</v>
-      </c>
-      <c r="G712" t="n">
-        <v>-164460515.8731077</v>
-      </c>
-      <c r="H712" t="n">
-        <v>1</v>
-      </c>
-      <c r="I712" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr">
+      <c r="L756" t="n">
+        <v>1</v>
+      </c>
+      <c r="M756" t="inlineStr"/>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>755</v>
+      </c>
+      <c r="B757" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C757" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D757" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E757" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F757" t="n">
+        <v>179664.7854</v>
+      </c>
+      <c r="G757" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H757" t="n">
+        <v>1</v>
+      </c>
+      <c r="I757" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J757" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K757" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L712" t="n">
-        <v>1</v>
-      </c>
-      <c r="M712" t="inlineStr"/>
-    </row>
-    <row r="713">
-      <c r="A713" s="1" t="n">
-        <v>711</v>
-      </c>
-      <c r="B713" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C713" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D713" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E713" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F713" t="n">
-        <v>139542.025</v>
-      </c>
-      <c r="G713" t="n">
-        <v>-164320973.8481077</v>
-      </c>
-      <c r="H713" t="n">
-        <v>1</v>
-      </c>
-      <c r="I713" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr">
+      <c r="L757" t="n">
+        <v>1</v>
+      </c>
+      <c r="M757" t="inlineStr"/>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>756</v>
+      </c>
+      <c r="B758" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C758" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D758" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E758" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F758" t="n">
+        <v>330700.2009</v>
+      </c>
+      <c r="G758" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H758" t="n">
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J758" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K758" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L713" t="n">
-        <v>1</v>
-      </c>
-      <c r="M713" t="inlineStr"/>
-    </row>
-    <row r="714">
-      <c r="A714" s="1" t="n">
-        <v>712</v>
-      </c>
-      <c r="B714" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C714" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D714" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E714" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F714" t="n">
-        <v>115104.3079</v>
-      </c>
-      <c r="G714" t="n">
-        <v>-164436078.1560077</v>
-      </c>
-      <c r="H714" t="n">
-        <v>1</v>
-      </c>
-      <c r="I714" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr">
+      <c r="L758" t="n">
+        <v>1</v>
+      </c>
+      <c r="M758" t="inlineStr"/>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>757</v>
+      </c>
+      <c r="B759" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C759" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D759" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E759" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F759" t="n">
+        <v>186060.1941</v>
+      </c>
+      <c r="G759" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H759" t="n">
+        <v>1</v>
+      </c>
+      <c r="I759" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J759" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K759" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L714" t="n">
-        <v>1</v>
-      </c>
-      <c r="M714" t="inlineStr"/>
-    </row>
-    <row r="715">
-      <c r="A715" s="1" t="n">
-        <v>713</v>
-      </c>
-      <c r="B715" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C715" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D715" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E715" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F715" t="n">
-        <v>11</v>
-      </c>
-      <c r="G715" t="n">
-        <v>-164436067.1560077</v>
-      </c>
-      <c r="H715" t="n">
-        <v>0</v>
-      </c>
-      <c r="I715" t="inlineStr"/>
-      <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr">
+      <c r="L759" t="n">
+        <v>1</v>
+      </c>
+      <c r="M759" t="inlineStr"/>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>758</v>
+      </c>
+      <c r="B760" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C760" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D760" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E760" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F760" t="n">
+        <v>172030</v>
+      </c>
+      <c r="G760" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H760" t="n">
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J760" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K760" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L715" t="n">
-        <v>1</v>
-      </c>
-      <c r="M715" t="inlineStr"/>
-    </row>
-    <row r="716">
-      <c r="A716" s="1" t="n">
-        <v>714</v>
-      </c>
-      <c r="B716" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C716" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="D716" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E716" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F716" t="n">
-        <v>418059.9301</v>
-      </c>
-      <c r="G716" t="n">
-        <v>-164018007.2259077</v>
-      </c>
-      <c r="H716" t="n">
-        <v>0</v>
-      </c>
-      <c r="I716" t="inlineStr"/>
-      <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr">
+      <c r="L760" t="n">
+        <v>1</v>
+      </c>
+      <c r="M760" t="inlineStr"/>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>759</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C761" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D761" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E761" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F761" t="n">
+        <v>2727.9126</v>
+      </c>
+      <c r="G761" t="n">
+        <v>-164258011.4113078</v>
+      </c>
+      <c r="H761" t="n">
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J761" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K761" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L716" t="n">
-        <v>1</v>
-      </c>
-      <c r="M716" t="inlineStr"/>
-    </row>
-    <row r="717">
-      <c r="A717" s="1" t="n">
-        <v>715</v>
-      </c>
-      <c r="B717" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C717" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="D717" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E717" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="F717" t="n">
-        <v>443819.8391</v>
-      </c>
-      <c r="G717" t="n">
-        <v>-164018007.2259077</v>
-      </c>
-      <c r="H717" t="n">
-        <v>0</v>
-      </c>
-      <c r="I717" t="inlineStr"/>
-      <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr">
+      <c r="L761" t="n">
+        <v>1</v>
+      </c>
+      <c r="M761" t="inlineStr"/>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>760</v>
+      </c>
+      <c r="B762" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="C762" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="D762" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="E762" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="F762" t="n">
+        <v>1424655.8725</v>
+      </c>
+      <c r="G762" t="n">
+        <v>-165682667.2838078</v>
+      </c>
+      <c r="H762" t="n">
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J762" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K762" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L717" t="n">
-        <v>1</v>
-      </c>
-      <c r="M717" t="inlineStr"/>
-    </row>
-    <row r="718">
-      <c r="A718" s="1" t="n">
-        <v>716</v>
-      </c>
-      <c r="B718" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="C718" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D718" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E718" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F718" t="n">
-        <v>303837.2927</v>
-      </c>
-      <c r="G718" t="n">
-        <v>-164321844.5186077</v>
-      </c>
-      <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
-      <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr">
+      <c r="L762" t="n">
+        <v>1</v>
+      </c>
+      <c r="M762" t="inlineStr"/>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>761</v>
+      </c>
+      <c r="B763" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C763" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D763" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E763" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F763" t="n">
+        <v>69696.82670000001</v>
+      </c>
+      <c r="G763" t="n">
+        <v>-165612970.4571078</v>
+      </c>
+      <c r="H763" t="n">
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="J763" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K763" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L718" t="n">
-        <v>1</v>
-      </c>
-      <c r="M718" t="inlineStr"/>
-    </row>
-    <row r="719">
-      <c r="A719" s="1" t="n">
-        <v>717</v>
-      </c>
-      <c r="B719" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C719" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D719" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E719" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F719" t="n">
-        <v>418263.9792</v>
-      </c>
-      <c r="G719" t="n">
-        <v>-164321844.5186077</v>
-      </c>
-      <c r="H719" t="n">
-        <v>0</v>
-      </c>
-      <c r="I719" t="inlineStr"/>
-      <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr">
+      <c r="L763" t="n">
+        <v>1</v>
+      </c>
+      <c r="M763" t="inlineStr"/>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>762</v>
+      </c>
+      <c r="B764" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C764" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D764" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E764" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F764" t="n">
+        <v>362909.6947</v>
+      </c>
+      <c r="G764" t="n">
+        <v>-165612970.4571078</v>
+      </c>
+      <c r="H764" t="n">
+        <v>1</v>
+      </c>
+      <c r="I764" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J764" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K764" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L719" t="n">
-        <v>1</v>
-      </c>
-      <c r="M719" t="inlineStr"/>
-    </row>
-    <row r="720">
-      <c r="A720" s="1" t="n">
-        <v>718</v>
-      </c>
-      <c r="B720" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C720" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D720" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E720" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F720" t="n">
-        <v>364437.1208</v>
-      </c>
-      <c r="G720" t="n">
-        <v>-164321844.5186077</v>
-      </c>
-      <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
-      <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr">
+      <c r="L764" t="n">
+        <v>1</v>
+      </c>
+      <c r="M764" t="inlineStr"/>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>763</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="C765" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="D765" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="E765" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="F765" t="n">
+        <v>30285.7611</v>
+      </c>
+      <c r="G765" t="n">
+        <v>-165612970.4571078</v>
+      </c>
+      <c r="H765" t="n">
+        <v>1</v>
+      </c>
+      <c r="I765" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J765" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K765" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L720" t="n">
-        <v>1</v>
-      </c>
-      <c r="M720" t="inlineStr"/>
-    </row>
-    <row r="721">
-      <c r="A721" s="1" t="n">
-        <v>719</v>
-      </c>
-      <c r="B721" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C721" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D721" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E721" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F721" t="n">
-        <v>353260</v>
-      </c>
-      <c r="G721" t="n">
-        <v>-163968584.5186077</v>
-      </c>
-      <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
-      <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr">
+      <c r="L765" t="n">
+        <v>1</v>
+      </c>
+      <c r="M765" t="inlineStr"/>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>764</v>
+      </c>
+      <c r="B766" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C766" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D766" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E766" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F766" t="n">
+        <v>273351.284</v>
+      </c>
+      <c r="G766" t="n">
+        <v>-165339619.1731077</v>
+      </c>
+      <c r="H766" t="n">
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J766" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K766" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L721" t="n">
-        <v>1</v>
-      </c>
-      <c r="M721" t="inlineStr"/>
-    </row>
-    <row r="722">
-      <c r="A722" s="1" t="n">
-        <v>720</v>
-      </c>
-      <c r="B722" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C722" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D722" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E722" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F722" t="n">
-        <v>35554.5745</v>
-      </c>
-      <c r="G722" t="n">
-        <v>-163968584.5186077</v>
-      </c>
-      <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
-      <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr">
+      <c r="L766" t="n">
+        <v>1</v>
+      </c>
+      <c r="M766" t="inlineStr"/>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>765</v>
+      </c>
+      <c r="B767" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C767" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D767" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E767" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F767" t="n">
+        <v>429979.7111</v>
+      </c>
+      <c r="G767" t="n">
+        <v>-165339619.1731077</v>
+      </c>
+      <c r="H767" t="n">
+        <v>1</v>
+      </c>
+      <c r="I767" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J767" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K767" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L722" t="n">
-        <v>1</v>
-      </c>
-      <c r="M722" t="inlineStr"/>
-    </row>
-    <row r="723">
-      <c r="A723" s="1" t="n">
-        <v>721</v>
-      </c>
-      <c r="B723" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C723" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D723" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E723" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F723" t="n">
-        <v>250440.5255</v>
-      </c>
-      <c r="G723" t="n">
-        <v>-163968584.5186077</v>
-      </c>
-      <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
-      <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr">
+      <c r="L767" t="n">
+        <v>1</v>
+      </c>
+      <c r="M767" t="inlineStr"/>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>766</v>
+      </c>
+      <c r="B768" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C768" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D768" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E768" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F768" t="n">
+        <v>114394</v>
+      </c>
+      <c r="G768" t="n">
+        <v>-165339619.1731077</v>
+      </c>
+      <c r="H768" t="n">
+        <v>1</v>
+      </c>
+      <c r="I768" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J768" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K768" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L723" t="n">
-        <v>1</v>
-      </c>
-      <c r="M723" t="inlineStr"/>
-    </row>
-    <row r="724">
-      <c r="A724" s="1" t="n">
-        <v>722</v>
-      </c>
-      <c r="B724" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C724" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D724" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E724" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F724" t="n">
-        <v>436039.4973</v>
-      </c>
-      <c r="G724" t="n">
-        <v>-163968584.5186077</v>
-      </c>
-      <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
-      <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr">
+      <c r="L768" t="n">
+        <v>1</v>
+      </c>
+      <c r="M768" t="inlineStr"/>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>767</v>
+      </c>
+      <c r="B769" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D769" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E769" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F769" t="n">
+        <v>50</v>
+      </c>
+      <c r="G769" t="n">
+        <v>-165339569.1731077</v>
+      </c>
+      <c r="H769" t="n">
+        <v>1</v>
+      </c>
+      <c r="I769" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J769" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K769" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L724" t="n">
-        <v>1</v>
-      </c>
-      <c r="M724" t="inlineStr"/>
-    </row>
-    <row r="725">
-      <c r="A725" s="1" t="n">
-        <v>723</v>
-      </c>
-      <c r="B725" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C725" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D725" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E725" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F725" t="n">
-        <v>277622.0273</v>
-      </c>
-      <c r="G725" t="n">
-        <v>-164246206.5459077</v>
-      </c>
-      <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
-      <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr">
+      <c r="L769" t="n">
+        <v>1</v>
+      </c>
+      <c r="M769" t="inlineStr"/>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>768</v>
+      </c>
+      <c r="B770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F770" t="n">
+        <v>2269.9757</v>
+      </c>
+      <c r="G770" t="n">
+        <v>-165339569.1731077</v>
+      </c>
+      <c r="H770" t="n">
+        <v>1</v>
+      </c>
+      <c r="I770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J770" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K770" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L725" t="n">
-        <v>1</v>
-      </c>
-      <c r="M725" t="inlineStr"/>
-    </row>
-    <row r="726">
-      <c r="A726" s="1" t="n">
-        <v>724</v>
-      </c>
-      <c r="B726" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C726" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D726" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E726" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F726" t="n">
-        <v>320959.1124</v>
-      </c>
-      <c r="G726" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
-      <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr">
+      <c r="L770" t="n">
+        <v>1</v>
+      </c>
+      <c r="M770" t="inlineStr"/>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>769</v>
+      </c>
+      <c r="B771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="D771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="F771" t="n">
+        <v>19319.4767</v>
+      </c>
+      <c r="G771" t="n">
+        <v>-165339569.1731077</v>
+      </c>
+      <c r="H771" t="n">
+        <v>1</v>
+      </c>
+      <c r="I771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J771" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K771" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L726" t="n">
-        <v>1</v>
-      </c>
-      <c r="M726" t="inlineStr"/>
-    </row>
-    <row r="727">
-      <c r="A727" s="1" t="n">
-        <v>725</v>
-      </c>
-      <c r="B727" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C727" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D727" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E727" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F727" t="n">
-        <v>415008.3005</v>
-      </c>
-      <c r="G727" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
-      <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr">
+      <c r="L771" t="n">
+        <v>1</v>
+      </c>
+      <c r="M771" t="inlineStr"/>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>770</v>
+      </c>
+      <c r="B772" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D772" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E772" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F772" t="n">
+        <v>37596.1648</v>
+      </c>
+      <c r="G772" t="n">
+        <v>-165377165.3379077</v>
+      </c>
+      <c r="H772" t="n">
+        <v>1</v>
+      </c>
+      <c r="I772" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="J772" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K772" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L727" t="n">
-        <v>1</v>
-      </c>
-      <c r="M727" t="inlineStr"/>
-    </row>
-    <row r="728">
-      <c r="A728" s="1" t="n">
-        <v>726</v>
-      </c>
-      <c r="B728" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C728" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D728" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E728" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F728" t="n">
-        <v>952052.8973</v>
-      </c>
-      <c r="G728" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
-      <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr">
+      <c r="L772" t="n">
+        <v>1</v>
+      </c>
+      <c r="M772" t="inlineStr"/>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>771</v>
+      </c>
+      <c r="B773" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C773" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D773" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E773" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F773" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G773" t="n">
+        <v>-165377165.3379077</v>
+      </c>
+      <c r="H773" t="n">
+        <v>1</v>
+      </c>
+      <c r="I773" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J773" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K773" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L728" t="n">
-        <v>1</v>
-      </c>
-      <c r="M728" t="inlineStr"/>
-    </row>
-    <row r="729">
-      <c r="A729" s="1" t="n">
-        <v>727</v>
-      </c>
-      <c r="B729" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C729" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D729" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E729" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F729" t="n">
-        <v>272967.6541</v>
-      </c>
-      <c r="G729" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
-      <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr">
+      <c r="L773" t="n">
+        <v>1</v>
+      </c>
+      <c r="M773" t="inlineStr"/>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>772</v>
+      </c>
+      <c r="B774" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C774" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D774" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="E774" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F774" t="n">
+        <v>10000</v>
+      </c>
+      <c r="G774" t="n">
+        <v>-165377165.3379077</v>
+      </c>
+      <c r="H774" t="n">
+        <v>1</v>
+      </c>
+      <c r="I774" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J774" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K774" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L729" t="n">
-        <v>1</v>
-      </c>
-      <c r="M729" t="inlineStr"/>
-    </row>
-    <row r="730">
-      <c r="A730" s="1" t="n">
-        <v>728</v>
-      </c>
-      <c r="B730" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C730" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D730" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E730" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F730" t="n">
-        <v>21129.9097</v>
-      </c>
-      <c r="G730" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
-      <c r="K730" t="inlineStr">
+      <c r="L774" t="n">
+        <v>1</v>
+      </c>
+      <c r="M774" t="inlineStr"/>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>773</v>
+      </c>
+      <c r="B775" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="C775" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="D775" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="E775" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="F775" t="n">
+        <v>1274125.7261</v>
+      </c>
+      <c r="G775" t="n">
+        <v>-165377165.3379077</v>
+      </c>
+      <c r="H775" t="n">
+        <v>1</v>
+      </c>
+      <c r="I775" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J775" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K775" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L730" t="n">
-        <v>1</v>
-      </c>
-      <c r="M730" t="inlineStr"/>
-    </row>
-    <row r="731">
-      <c r="A731" s="1" t="n">
-        <v>729</v>
-      </c>
-      <c r="B731" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C731" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D731" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E731" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F731" t="n">
-        <v>49367.1084</v>
-      </c>
-      <c r="G731" t="n">
-        <v>-163925247.4335077</v>
-      </c>
-      <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr">
+      <c r="L775" t="n">
+        <v>1</v>
+      </c>
+      <c r="M775" t="inlineStr"/>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>774</v>
+      </c>
+      <c r="B776" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="C776" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D776" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="E776" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F776" t="n">
+        <v>10</v>
+      </c>
+      <c r="G776" t="n">
+        <v>-165377155.3379077</v>
+      </c>
+      <c r="H776" t="n">
+        <v>1</v>
+      </c>
+      <c r="I776" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="J776" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K776" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L731" t="n">
-        <v>1</v>
-      </c>
-      <c r="M731" t="inlineStr"/>
-    </row>
-    <row r="732">
-      <c r="A732" s="1" t="n">
-        <v>730</v>
-      </c>
-      <c r="B732" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C732" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D732" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E732" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F732" t="n">
-        <v>213384.8503</v>
-      </c>
-      <c r="G732" t="n">
-        <v>-164138632.2838078</v>
-      </c>
-      <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr">
+      <c r="L776" t="n">
+        <v>1</v>
+      </c>
+      <c r="M776" t="inlineStr"/>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>775</v>
+      </c>
+      <c r="B777" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C777" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D777" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E777" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F777" t="n">
+        <v>52205.7732</v>
+      </c>
+      <c r="G777" t="n">
+        <v>-165324949.5647077</v>
+      </c>
+      <c r="H777" t="n">
+        <v>1</v>
+      </c>
+      <c r="I777" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J777" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K777" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L732" t="n">
-        <v>1</v>
-      </c>
-      <c r="M732" t="inlineStr"/>
-    </row>
-    <row r="733">
-      <c r="A733" s="1" t="n">
-        <v>731</v>
-      </c>
-      <c r="B733" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C733" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D733" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E733" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F733" t="n">
-        <v>8240.824000000001</v>
-      </c>
-      <c r="G733" t="n">
-        <v>-164146873.1078078</v>
-      </c>
-      <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
-      <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr">
+      <c r="L777" t="n">
+        <v>1</v>
+      </c>
+      <c r="M777" t="inlineStr"/>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>776</v>
+      </c>
+      <c r="B778" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C778" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="D778" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E778" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="F778" t="n">
+        <v>229815.2679</v>
+      </c>
+      <c r="G778" t="n">
+        <v>-165554764.8326077</v>
+      </c>
+      <c r="H778" t="n">
+        <v>0</v>
+      </c>
+      <c r="I778" t="inlineStr"/>
+      <c r="J778" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K778" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L733" t="n">
-        <v>1</v>
-      </c>
-      <c r="M733" t="inlineStr"/>
-    </row>
-    <row r="734">
-      <c r="A734" s="1" t="n">
-        <v>732</v>
-      </c>
-      <c r="B734" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C734" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D734" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E734" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F734" t="n">
-        <v>233877.3071</v>
-      </c>
-      <c r="G734" t="n">
-        <v>-163912995.8007078</v>
-      </c>
-      <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
-      <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr">
+      <c r="L778" t="n">
+        <v>1</v>
+      </c>
+      <c r="M778" t="inlineStr"/>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>777</v>
+      </c>
+      <c r="B779" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C779" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="D779" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="E779" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F779" t="n">
+        <v>350825.8784</v>
+      </c>
+      <c r="G779" t="n">
+        <v>-165203938.9542077</v>
+      </c>
+      <c r="H779" t="n">
+        <v>1</v>
+      </c>
+      <c r="I779" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="J779" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K779" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L734" t="n">
-        <v>1</v>
-      </c>
-      <c r="M734" t="inlineStr"/>
-    </row>
-    <row r="735">
-      <c r="A735" s="1" t="n">
-        <v>733</v>
-      </c>
-      <c r="B735" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C735" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D735" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E735" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F735" t="n">
-        <v>277235.9464</v>
-      </c>
-      <c r="G735" t="n">
-        <v>-163635759.8543078</v>
-      </c>
-      <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
-      <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr">
+      <c r="L779" t="n">
+        <v>1</v>
+      </c>
+      <c r="M779" t="inlineStr"/>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>778</v>
+      </c>
+      <c r="B780" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="C780" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="D780" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="E780" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F780" t="n">
+        <v>113530</v>
+      </c>
+      <c r="G780" t="n">
+        <v>-165090408.9542077</v>
+      </c>
+      <c r="H780" t="n">
+        <v>1</v>
+      </c>
+      <c r="I780" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="J780" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K780" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L735" t="n">
-        <v>1</v>
-      </c>
-      <c r="M735" t="inlineStr"/>
-    </row>
-    <row r="736">
-      <c r="A736" s="1" t="n">
-        <v>734</v>
-      </c>
-      <c r="B736" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C736" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D736" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E736" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F736" t="n">
-        <v>1818</v>
-      </c>
-      <c r="G736" t="n">
-        <v>-163637577.8543078</v>
-      </c>
-      <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
-      <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr">
+      <c r="L780" t="n">
+        <v>1</v>
+      </c>
+      <c r="M780" t="inlineStr"/>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>779</v>
+      </c>
+      <c r="B781" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="C781" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="D781" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="E781" t="n">
+        <v>4.17</v>
+      </c>
+      <c r="F781" t="n">
+        <v>1180628.5143</v>
+      </c>
+      <c r="G781" t="n">
+        <v>-163909780.4399077</v>
+      </c>
+      <c r="H781" t="n">
+        <v>1</v>
+      </c>
+      <c r="I781" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="J781" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K781" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L736" t="n">
-        <v>1</v>
-      </c>
-      <c r="M736" t="inlineStr"/>
-    </row>
-    <row r="737">
-      <c r="A737" s="1" t="n">
-        <v>735</v>
-      </c>
-      <c r="B737" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C737" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D737" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E737" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F737" t="n">
-        <v>872918.0978</v>
-      </c>
-      <c r="G737" t="n">
-        <v>-163637577.8543078</v>
-      </c>
-      <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
-      <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr">
+      <c r="L781" t="n">
+        <v>1</v>
+      </c>
+      <c r="M781" t="inlineStr"/>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>780</v>
+      </c>
+      <c r="B782" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="C782" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="D782" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="E782" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="F782" t="n">
+        <v>10</v>
+      </c>
+      <c r="G782" t="n">
+        <v>-163909770.4399077</v>
+      </c>
+      <c r="H782" t="n">
+        <v>0</v>
+      </c>
+      <c r="I782" t="inlineStr"/>
+      <c r="J782" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K782" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L737" t="n">
-        <v>1</v>
-      </c>
-      <c r="M737" t="inlineStr"/>
-    </row>
-    <row r="738">
-      <c r="A738" s="1" t="n">
-        <v>736</v>
-      </c>
-      <c r="B738" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C738" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D738" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E738" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F738" t="n">
-        <v>371807.0386</v>
-      </c>
-      <c r="G738" t="n">
-        <v>-164009384.8929078</v>
-      </c>
-      <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
-      <c r="K738" t="inlineStr">
+      <c r="L782" t="n">
+        <v>1</v>
+      </c>
+      <c r="M782" t="inlineStr"/>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>781</v>
+      </c>
+      <c r="B783" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="C783" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D783" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E783" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="F783" t="n">
+        <v>656818.83</v>
+      </c>
+      <c r="G783" t="n">
+        <v>-163252951.6099077</v>
+      </c>
+      <c r="H783" t="n">
+        <v>0</v>
+      </c>
+      <c r="I783" t="inlineStr"/>
+      <c r="J783" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K783" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="L738" t="n">
-        <v>1</v>
-      </c>
-      <c r="M738" t="inlineStr"/>
-    </row>
-    <row r="739">
-      <c r="A739" s="1" t="n">
-        <v>737</v>
-      </c>
-      <c r="B739" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C739" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D739" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E739" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F739" t="n">
-        <v>46928.5856</v>
-      </c>
-      <c r="G739" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L739" t="n">
-        <v>1</v>
-      </c>
-      <c r="M739" t="inlineStr"/>
-    </row>
-    <row r="740">
-      <c r="A740" s="1" t="n">
-        <v>738</v>
-      </c>
-      <c r="B740" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C740" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D740" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E740" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F740" t="n">
-        <v>361749.2388</v>
-      </c>
-      <c r="G740" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L740" t="n">
-        <v>1</v>
-      </c>
-      <c r="M740" t="inlineStr"/>
-    </row>
-    <row r="741">
-      <c r="A741" s="1" t="n">
-        <v>739</v>
-      </c>
-      <c r="B741" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C741" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D741" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E741" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F741" t="n">
-        <v>367391.8389</v>
-      </c>
-      <c r="G741" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
-      <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L741" t="n">
-        <v>1</v>
-      </c>
-      <c r="M741" t="inlineStr"/>
-    </row>
-    <row r="742">
-      <c r="A742" s="1" t="n">
-        <v>740</v>
-      </c>
-      <c r="B742" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C742" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D742" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E742" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F742" t="n">
-        <v>219330.5189</v>
-      </c>
-      <c r="G742" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
-      <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L742" t="n">
-        <v>1</v>
-      </c>
-      <c r="M742" t="inlineStr"/>
-    </row>
-    <row r="743">
-      <c r="A743" s="1" t="n">
-        <v>741</v>
-      </c>
-      <c r="B743" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C743" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D743" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E743" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F743" t="n">
-        <v>202301.3208</v>
-      </c>
-      <c r="G743" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
-      <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L743" t="n">
-        <v>1</v>
-      </c>
-      <c r="M743" t="inlineStr"/>
-    </row>
-    <row r="744">
-      <c r="A744" s="1" t="n">
-        <v>742</v>
-      </c>
-      <c r="B744" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C744" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D744" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E744" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F744" t="n">
-        <v>160660</v>
-      </c>
-      <c r="G744" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
-      <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L744" t="n">
-        <v>1</v>
-      </c>
-      <c r="M744" t="inlineStr"/>
-    </row>
-    <row r="745">
-      <c r="A745" s="1" t="n">
-        <v>743</v>
-      </c>
-      <c r="B745" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C745" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D745" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E745" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F745" t="n">
-        <v>91790.1747</v>
-      </c>
-      <c r="G745" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H745" t="n">
+      <c r="L783" t="n">
+        <v>1</v>
+      </c>
+      <c r="M783" t="inlineStr"/>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>782</v>
+      </c>
+      <c r="B784" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="C784" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="D784" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="E784" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="F784" t="n">
+        <v>32876.6326</v>
+      </c>
+      <c r="G784" t="n">
+        <v>-163252951.6099077</v>
+      </c>
+      <c r="H784" t="n">
         <v>2</v>
       </c>
-      <c r="I745" t="inlineStr"/>
-      <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr">
+      <c r="I784" t="inlineStr"/>
+      <c r="J784" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="K784" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L745" t="inlineStr"/>
-      <c r="M745" t="inlineStr"/>
-    </row>
-    <row r="746">
-      <c r="A746" s="1" t="n">
-        <v>744</v>
-      </c>
-      <c r="B746" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C746" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D746" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E746" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F746" t="n">
-        <v>197691.0327</v>
-      </c>
-      <c r="G746" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H746" t="n">
-        <v>2</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
-      <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
-      <c r="L746" t="n">
-        <v>1</v>
-      </c>
-      <c r="M746" t="inlineStr"/>
-    </row>
-    <row r="747">
-      <c r="A747" s="1" t="n">
-        <v>745</v>
-      </c>
-      <c r="B747" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C747" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D747" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E747" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F747" t="n">
-        <v>400813.102</v>
-      </c>
-      <c r="G747" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
-      <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
-      <c r="L747" t="n">
-        <v>1</v>
-      </c>
-      <c r="M747" t="inlineStr"/>
-    </row>
-    <row r="748">
-      <c r="A748" s="1" t="n">
-        <v>746</v>
-      </c>
-      <c r="B748" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C748" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D748" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E748" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F748" t="n">
-        <v>87134.48330000001</v>
-      </c>
-      <c r="G748" t="n">
-        <v>-163962456.3073078</v>
-      </c>
-      <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
-      <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
-      <c r="L748" t="n">
-        <v>1</v>
-      </c>
-      <c r="M748" t="inlineStr"/>
-    </row>
-    <row r="749">
-      <c r="A749" s="1" t="n">
-        <v>747</v>
-      </c>
-      <c r="B749" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C749" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D749" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E749" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F749" t="n">
-        <v>231548.2414</v>
-      </c>
-      <c r="G749" t="n">
-        <v>-163730908.0659078</v>
-      </c>
-      <c r="H749" t="n">
-        <v>2</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
-      <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
-      <c r="L749" t="n">
-        <v>1</v>
-      </c>
-      <c r="M749" t="inlineStr"/>
-    </row>
-    <row r="750">
-      <c r="A750" s="1" t="n">
-        <v>748</v>
-      </c>
-      <c r="B750" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C750" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D750" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E750" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F750" t="n">
-        <v>601684.7731</v>
-      </c>
-      <c r="G750" t="n">
-        <v>-164332592.8390078</v>
-      </c>
-      <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
-      <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
-      <c r="L750" t="n">
-        <v>1</v>
-      </c>
-      <c r="M750" t="inlineStr"/>
-    </row>
-    <row r="751">
-      <c r="A751" s="1" t="n">
-        <v>749</v>
-      </c>
-      <c r="B751" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C751" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D751" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E751" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F751" t="n">
-        <v>24043.836</v>
-      </c>
-      <c r="G751" t="n">
-        <v>-164332592.8390078</v>
-      </c>
-      <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
-      <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
-      <c r="L751" t="n">
-        <v>1</v>
-      </c>
-      <c r="M751" t="inlineStr"/>
-    </row>
-    <row r="752">
-      <c r="A752" s="1" t="n">
-        <v>750</v>
-      </c>
-      <c r="B752" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C752" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="D752" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E752" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="F752" t="n">
-        <v>26648.0255</v>
-      </c>
-      <c r="G752" t="n">
-        <v>-164332592.8390078</v>
-      </c>
-      <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
-      <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
-      <c r="L752" t="n">
-        <v>1</v>
-      </c>
-      <c r="M752" t="inlineStr"/>
-    </row>
-    <row r="753">
-      <c r="A753" s="1" t="n">
-        <v>751</v>
-      </c>
-      <c r="B753" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C753" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D753" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E753" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F753" t="n">
-        <v>200749.4672</v>
-      </c>
-      <c r="G753" t="n">
-        <v>-164131843.3718078</v>
-      </c>
-      <c r="H753" t="n">
-        <v>0</v>
-      </c>
-      <c r="I753" t="inlineStr"/>
-      <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
-      <c r="L753" t="n">
-        <v>1</v>
-      </c>
-      <c r="M753" t="inlineStr"/>
-    </row>
-    <row r="754">
-      <c r="A754" s="1" t="n">
-        <v>752</v>
-      </c>
-      <c r="B754" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C754" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D754" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E754" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F754" t="n">
-        <v>10</v>
-      </c>
-      <c r="G754" t="n">
-        <v>-164131833.3718078</v>
-      </c>
-      <c r="H754" t="n">
-        <v>0</v>
-      </c>
-      <c r="I754" t="inlineStr"/>
-      <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
-      <c r="L754" t="n">
-        <v>1</v>
-      </c>
-      <c r="M754" t="inlineStr"/>
-    </row>
-    <row r="755">
-      <c r="A755" s="1" t="n">
-        <v>753</v>
-      </c>
-      <c r="B755" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C755" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D755" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E755" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F755" t="n">
-        <v>652066.9007</v>
-      </c>
-      <c r="G755" t="n">
-        <v>-164131833.3718078</v>
-      </c>
-      <c r="H755" t="n">
-        <v>0</v>
-      </c>
-      <c r="I755" t="inlineStr"/>
-      <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
-      <c r="M755" t="inlineStr"/>
-    </row>
-    <row r="756">
-      <c r="A756" s="1" t="n">
-        <v>754</v>
-      </c>
-      <c r="B756" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C756" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D756" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E756" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F756" t="n">
-        <v>126178.0395</v>
-      </c>
-      <c r="G756" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H756" t="n">
-        <v>0</v>
-      </c>
-      <c r="I756" t="inlineStr"/>
-      <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
-      <c r="L756" t="n">
-        <v>1</v>
-      </c>
-      <c r="M756" t="inlineStr"/>
-    </row>
-    <row r="757">
-      <c r="A757" s="1" t="n">
-        <v>755</v>
-      </c>
-      <c r="B757" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C757" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D757" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E757" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F757" t="n">
-        <v>179664.7854</v>
-      </c>
-      <c r="G757" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H757" t="n">
-        <v>0</v>
-      </c>
-      <c r="I757" t="inlineStr"/>
-      <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
-      <c r="L757" t="n">
-        <v>1</v>
-      </c>
-      <c r="M757" t="inlineStr"/>
-    </row>
-    <row r="758">
-      <c r="A758" s="1" t="n">
-        <v>756</v>
-      </c>
-      <c r="B758" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C758" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D758" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E758" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F758" t="n">
-        <v>330700.2009</v>
-      </c>
-      <c r="G758" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H758" t="n">
-        <v>0</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
-      <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
-      <c r="L758" t="n">
-        <v>1</v>
-      </c>
-      <c r="M758" t="inlineStr"/>
-    </row>
-    <row r="759">
-      <c r="A759" s="1" t="n">
-        <v>757</v>
-      </c>
-      <c r="B759" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C759" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D759" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E759" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F759" t="n">
-        <v>186060.1941</v>
-      </c>
-      <c r="G759" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H759" t="n">
-        <v>0</v>
-      </c>
-      <c r="I759" t="inlineStr"/>
-      <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
-      <c r="L759" t="n">
-        <v>1</v>
-      </c>
-      <c r="M759" t="inlineStr"/>
-    </row>
-    <row r="760">
-      <c r="A760" s="1" t="n">
-        <v>758</v>
-      </c>
-      <c r="B760" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C760" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D760" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E760" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F760" t="n">
-        <v>172030</v>
-      </c>
-      <c r="G760" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
-      <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
-      <c r="L760" t="n">
-        <v>1</v>
-      </c>
-      <c r="M760" t="inlineStr"/>
-    </row>
-    <row r="761">
-      <c r="A761" s="1" t="n">
-        <v>759</v>
-      </c>
-      <c r="B761" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C761" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D761" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E761" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F761" t="n">
-        <v>2727.9126</v>
-      </c>
-      <c r="G761" t="n">
-        <v>-164258011.4113078</v>
-      </c>
-      <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
-      <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
-      <c r="L761" t="n">
-        <v>1</v>
-      </c>
-      <c r="M761" t="inlineStr"/>
-    </row>
-    <row r="762">
-      <c r="A762" s="1" t="n">
-        <v>760</v>
-      </c>
-      <c r="B762" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="C762" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="D762" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="E762" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="F762" t="n">
-        <v>1424655.8725</v>
-      </c>
-      <c r="G762" t="n">
-        <v>-165682667.2838078</v>
-      </c>
-      <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
-      <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
-      <c r="L762" t="n">
-        <v>1</v>
-      </c>
-      <c r="M762" t="inlineStr"/>
-    </row>
-    <row r="763">
-      <c r="A763" s="1" t="n">
-        <v>761</v>
-      </c>
-      <c r="B763" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C763" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D763" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E763" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F763" t="n">
-        <v>69696.82670000001</v>
-      </c>
-      <c r="G763" t="n">
-        <v>-165612970.4571078</v>
-      </c>
-      <c r="H763" t="n">
-        <v>0</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
-      <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
-      <c r="L763" t="n">
-        <v>1</v>
-      </c>
-      <c r="M763" t="inlineStr"/>
-    </row>
-    <row r="764">
-      <c r="A764" s="1" t="n">
-        <v>762</v>
-      </c>
-      <c r="B764" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C764" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D764" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E764" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F764" t="n">
-        <v>362909.6947</v>
-      </c>
-      <c r="G764" t="n">
-        <v>-165612970.4571078</v>
-      </c>
-      <c r="H764" t="n">
-        <v>0</v>
-      </c>
-      <c r="I764" t="inlineStr"/>
-      <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
-      <c r="L764" t="n">
-        <v>1</v>
-      </c>
-      <c r="M764" t="inlineStr"/>
-    </row>
-    <row r="765">
-      <c r="A765" s="1" t="n">
-        <v>763</v>
-      </c>
-      <c r="B765" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="C765" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="D765" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="E765" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="F765" t="n">
-        <v>30285.7611</v>
-      </c>
-      <c r="G765" t="n">
-        <v>-165612970.4571078</v>
-      </c>
-      <c r="H765" t="n">
-        <v>0</v>
-      </c>
-      <c r="I765" t="inlineStr"/>
-      <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
-      <c r="L765" t="n">
-        <v>1</v>
-      </c>
-      <c r="M765" t="inlineStr"/>
-    </row>
-    <row r="766">
-      <c r="A766" s="1" t="n">
-        <v>764</v>
-      </c>
-      <c r="B766" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C766" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D766" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E766" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F766" t="n">
-        <v>273351.284</v>
-      </c>
-      <c r="G766" t="n">
-        <v>-165339619.1731077</v>
-      </c>
-      <c r="H766" t="n">
-        <v>1</v>
-      </c>
-      <c r="I766" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="J766" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K766" t="inlineStr"/>
-      <c r="L766" t="n">
-        <v>1</v>
-      </c>
-      <c r="M766" t="inlineStr"/>
-    </row>
-    <row r="767">
-      <c r="A767" s="1" t="n">
-        <v>765</v>
-      </c>
-      <c r="B767" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C767" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D767" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E767" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F767" t="n">
-        <v>429979.7111</v>
-      </c>
-      <c r="G767" t="n">
-        <v>-165339619.1731077</v>
-      </c>
-      <c r="H767" t="n">
-        <v>1</v>
-      </c>
-      <c r="I767" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="J767" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K767" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L767" t="n">
-        <v>1</v>
-      </c>
-      <c r="M767" t="inlineStr"/>
-    </row>
-    <row r="768">
-      <c r="A768" s="1" t="n">
-        <v>766</v>
-      </c>
-      <c r="B768" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C768" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D768" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E768" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F768" t="n">
-        <v>114394</v>
-      </c>
-      <c r="G768" t="n">
-        <v>-165339619.1731077</v>
-      </c>
-      <c r="H768" t="n">
-        <v>0</v>
-      </c>
-      <c r="I768" t="inlineStr"/>
-      <c r="J768" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="K768" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L768" t="n">
-        <v>1</v>
-      </c>
-      <c r="M768" t="inlineStr"/>
-    </row>
-    <row r="769">
-      <c r="A769" s="1" t="n">
-        <v>767</v>
-      </c>
-      <c r="B769" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C769" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D769" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E769" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F769" t="n">
-        <v>50</v>
-      </c>
-      <c r="G769" t="n">
-        <v>-165339569.1731077</v>
-      </c>
-      <c r="H769" t="n">
-        <v>0</v>
-      </c>
-      <c r="I769" t="inlineStr"/>
-      <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
-      <c r="L769" t="n">
-        <v>1</v>
-      </c>
-      <c r="M769" t="inlineStr"/>
-    </row>
-    <row r="770">
-      <c r="A770" s="1" t="n">
-        <v>768</v>
-      </c>
-      <c r="B770" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C770" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D770" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E770" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F770" t="n">
-        <v>2269.9757</v>
-      </c>
-      <c r="G770" t="n">
-        <v>-165339569.1731077</v>
-      </c>
-      <c r="H770" t="n">
-        <v>0</v>
-      </c>
-      <c r="I770" t="inlineStr"/>
-      <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
-      <c r="L770" t="n">
-        <v>1</v>
-      </c>
-      <c r="M770" t="inlineStr"/>
-    </row>
-    <row r="771">
-      <c r="A771" s="1" t="n">
-        <v>769</v>
-      </c>
-      <c r="B771" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C771" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="D771" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E771" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="F771" t="n">
-        <v>19319.4767</v>
-      </c>
-      <c r="G771" t="n">
-        <v>-165339569.1731077</v>
-      </c>
-      <c r="H771" t="n">
-        <v>0</v>
-      </c>
-      <c r="I771" t="inlineStr"/>
-      <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
-      <c r="L771" t="n">
-        <v>1</v>
-      </c>
-      <c r="M771" t="inlineStr"/>
-    </row>
-    <row r="772">
-      <c r="A772" s="1" t="n">
-        <v>770</v>
-      </c>
-      <c r="B772" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="C772" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D772" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E772" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F772" t="n">
-        <v>37596.1648</v>
-      </c>
-      <c r="G772" t="n">
-        <v>-165377165.3379077</v>
-      </c>
-      <c r="H772" t="n">
-        <v>0</v>
-      </c>
-      <c r="I772" t="inlineStr"/>
-      <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
-      <c r="L772" t="n">
-        <v>1</v>
-      </c>
-      <c r="M772" t="inlineStr"/>
-    </row>
-    <row r="773">
-      <c r="A773" s="1" t="n">
-        <v>771</v>
-      </c>
-      <c r="B773" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C773" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D773" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E773" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F773" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G773" t="n">
-        <v>-165377165.3379077</v>
-      </c>
-      <c r="H773" t="n">
-        <v>0</v>
-      </c>
-      <c r="I773" t="inlineStr"/>
-      <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
-      <c r="L773" t="n">
-        <v>1</v>
-      </c>
-      <c r="M773" t="inlineStr"/>
-    </row>
-    <row r="774">
-      <c r="A774" s="1" t="n">
-        <v>772</v>
-      </c>
-      <c r="B774" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C774" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D774" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="E774" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F774" t="n">
-        <v>10000</v>
-      </c>
-      <c r="G774" t="n">
-        <v>-165377165.3379077</v>
-      </c>
-      <c r="H774" t="n">
-        <v>0</v>
-      </c>
-      <c r="I774" t="inlineStr"/>
-      <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
-      <c r="L774" t="n">
-        <v>1</v>
-      </c>
-      <c r="M774" t="inlineStr"/>
-    </row>
-    <row r="775">
-      <c r="A775" s="1" t="n">
-        <v>773</v>
-      </c>
-      <c r="B775" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="C775" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="D775" t="n">
-        <v>4.13</v>
-      </c>
-      <c r="E775" t="n">
-        <v>4.12</v>
-      </c>
-      <c r="F775" t="n">
-        <v>1274125.7261</v>
-      </c>
-      <c r="G775" t="n">
-        <v>-165377165.3379077</v>
-      </c>
-      <c r="H775" t="n">
-        <v>0</v>
-      </c>
-      <c r="I775" t="inlineStr"/>
-      <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
-      <c r="L775" t="n">
-        <v>1</v>
-      </c>
-      <c r="M775" t="inlineStr"/>
-    </row>
-    <row r="776">
-      <c r="A776" s="1" t="n">
-        <v>774</v>
-      </c>
-      <c r="B776" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="C776" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D776" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="E776" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F776" t="n">
-        <v>10</v>
-      </c>
-      <c r="G776" t="n">
-        <v>-165377155.3379077</v>
-      </c>
-      <c r="H776" t="n">
-        <v>0</v>
-      </c>
-      <c r="I776" t="inlineStr"/>
-      <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
-      <c r="L776" t="n">
-        <v>1</v>
-      </c>
-      <c r="M776" t="inlineStr"/>
-    </row>
-    <row r="777">
-      <c r="A777" s="1" t="n">
-        <v>775</v>
-      </c>
-      <c r="B777" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C777" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D777" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E777" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F777" t="n">
-        <v>52205.7732</v>
-      </c>
-      <c r="G777" t="n">
-        <v>-165324949.5647077</v>
-      </c>
-      <c r="H777" t="n">
-        <v>0</v>
-      </c>
-      <c r="I777" t="inlineStr"/>
-      <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
-      <c r="L777" t="n">
-        <v>1</v>
-      </c>
-      <c r="M777" t="inlineStr"/>
-    </row>
-    <row r="778">
-      <c r="A778" s="1" t="n">
-        <v>776</v>
-      </c>
-      <c r="B778" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C778" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="D778" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E778" t="n">
-        <v>4.14</v>
-      </c>
-      <c r="F778" t="n">
-        <v>229815.2679</v>
-      </c>
-      <c r="G778" t="n">
-        <v>-165554764.8326077</v>
-      </c>
-      <c r="H778" t="n">
-        <v>0</v>
-      </c>
-      <c r="I778" t="inlineStr"/>
-      <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
-      <c r="L778" t="n">
-        <v>1</v>
-      </c>
-      <c r="M778" t="inlineStr"/>
-    </row>
-    <row r="779">
-      <c r="A779" s="1" t="n">
-        <v>777</v>
-      </c>
-      <c r="B779" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C779" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="D779" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="E779" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F779" t="n">
-        <v>350825.8784</v>
-      </c>
-      <c r="G779" t="n">
-        <v>-165203938.9542077</v>
-      </c>
-      <c r="H779" t="n">
-        <v>0</v>
-      </c>
-      <c r="I779" t="inlineStr"/>
-      <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
-      <c r="L779" t="n">
-        <v>1</v>
-      </c>
-      <c r="M779" t="inlineStr"/>
-    </row>
-    <row r="780">
-      <c r="A780" s="1" t="n">
-        <v>778</v>
-      </c>
-      <c r="B780" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="C780" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="D780" t="n">
-        <v>4.16</v>
-      </c>
-      <c r="E780" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F780" t="n">
-        <v>113530</v>
-      </c>
-      <c r="G780" t="n">
-        <v>-165090408.9542077</v>
-      </c>
-      <c r="H780" t="n">
-        <v>0</v>
-      </c>
-      <c r="I780" t="inlineStr"/>
-      <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
-      <c r="L780" t="n">
-        <v>1</v>
-      </c>
-      <c r="M780" t="inlineStr"/>
-    </row>
-    <row r="781">
-      <c r="A781" s="1" t="n">
-        <v>779</v>
-      </c>
-      <c r="B781" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="C781" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="D781" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="E781" t="n">
-        <v>4.17</v>
-      </c>
-      <c r="F781" t="n">
-        <v>1180628.5143</v>
-      </c>
-      <c r="G781" t="n">
-        <v>-163909780.4399077</v>
-      </c>
-      <c r="H781" t="n">
-        <v>0</v>
-      </c>
-      <c r="I781" t="inlineStr"/>
-      <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
-      <c r="L781" t="n">
-        <v>1</v>
-      </c>
-      <c r="M781" t="inlineStr"/>
-    </row>
-    <row r="782">
-      <c r="A782" s="1" t="n">
-        <v>780</v>
-      </c>
-      <c r="B782" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="C782" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="D782" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="E782" t="n">
-        <v>4.21</v>
-      </c>
-      <c r="F782" t="n">
-        <v>10</v>
-      </c>
-      <c r="G782" t="n">
-        <v>-163909770.4399077</v>
-      </c>
-      <c r="H782" t="n">
-        <v>2</v>
-      </c>
-      <c r="I782" t="inlineStr"/>
-      <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
-      <c r="L782" t="n">
-        <v>1</v>
-      </c>
-      <c r="M782" t="inlineStr"/>
-    </row>
-    <row r="783">
-      <c r="A783" s="1" t="n">
-        <v>781</v>
-      </c>
-      <c r="B783" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="C783" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D783" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E783" t="n">
-        <v>4.22</v>
-      </c>
-      <c r="F783" t="n">
-        <v>656818.83</v>
-      </c>
-      <c r="G783" t="n">
-        <v>-163252951.6099077</v>
-      </c>
-      <c r="H783" t="n">
-        <v>2</v>
-      </c>
-      <c r="I783" t="inlineStr"/>
-      <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
-      <c r="L783" t="n">
-        <v>1</v>
-      </c>
-      <c r="M783" t="inlineStr"/>
-    </row>
-    <row r="784">
-      <c r="A784" s="1" t="n">
-        <v>782</v>
-      </c>
-      <c r="B784" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="C784" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="D784" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="E784" t="n">
-        <v>4.26</v>
-      </c>
-      <c r="F784" t="n">
-        <v>32876.6326</v>
-      </c>
-      <c r="G784" t="n">
-        <v>-163252951.6099077</v>
-      </c>
-      <c r="H784" t="n">
-        <v>0</v>
-      </c>
-      <c r="I784" t="inlineStr"/>
-      <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
       <c r="L784" t="n">
-        <v>1</v>
+        <v>1.026476997578692</v>
       </c>
       <c r="M784" t="inlineStr"/>
     </row>
@@ -26490,7 +26612,7 @@
         <v>-162598966.5382089</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -26523,7 +26645,7 @@
         <v>-162895939.7262089</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -26556,7 +26678,7 @@
         <v>-162679613.7796089</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -26589,7 +26711,7 @@
         <v>-163039235.7089089</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -26622,7 +26744,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -26655,7 +26777,7 @@
         <v>-162986717.8593089</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -26688,7 +26810,7 @@
         <v>-163239175.6843089</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -26721,7 +26843,7 @@
         <v>-163772610.9538089</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -26754,7 +26876,7 @@
         <v>-163547588.9535685</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -26787,7 +26909,7 @@
         <v>-163268206.2433685</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -26820,7 +26942,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -26853,7 +26975,7 @@
         <v>-163290866.2433685</v>
       </c>
       <c r="H796" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -26886,7 +27008,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H797" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -26919,7 +27041,7 @@
         <v>-163290876.2433685</v>
       </c>
       <c r="H798" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -26952,7 +27074,7 @@
         <v>-162886975.7283685</v>
       </c>
       <c r="H799" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -26985,7 +27107,7 @@
         <v>-163142924.1214685</v>
       </c>
       <c r="H800" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -27018,7 +27140,7 @@
         <v>-163659583.3462685</v>
       </c>
       <c r="H801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -27051,7 +27173,7 @@
         <v>-163829497.4307685</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -28536,14 +28658,10 @@
         <v>-164617968.7886685</v>
       </c>
       <c r="H847" t="n">
-        <v>1</v>
-      </c>
-      <c r="I847" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="J847" t="n">
-        <v>4.15</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I847" t="inlineStr"/>
+      <c r="J847" t="inlineStr"/>
       <c r="K847" t="inlineStr"/>
       <c r="L847" t="n">
         <v>1</v>
@@ -28576,14 +28694,8 @@
         <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
-      <c r="J848" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K848" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J848" t="inlineStr"/>
+      <c r="K848" t="inlineStr"/>
       <c r="L848" t="n">
         <v>1</v>
       </c>
@@ -28615,14 +28727,8 @@
         <v>0</v>
       </c>
       <c r="I849" t="inlineStr"/>
-      <c r="J849" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="K849" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J849" t="inlineStr"/>
+      <c r="K849" t="inlineStr"/>
       <c r="L849" t="n">
         <v>1</v>
       </c>
@@ -29179,7 +29285,7 @@
         <v>-164127961.0286685</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29212,7 +29318,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29245,7 +29351,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29278,7 +29384,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H869" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I869" t="inlineStr"/>
       <c r="J869" t="inlineStr"/>
@@ -29311,7 +29417,7 @@
         <v>-164466205.9909685</v>
       </c>
       <c r="H870" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I870" t="inlineStr"/>
       <c r="J870" t="inlineStr"/>
@@ -29344,7 +29450,7 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H871" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I871" t="inlineStr"/>
       <c r="J871" t="inlineStr"/>
@@ -29377,11 +29483,17 @@
         <v>-163726695.7131685</v>
       </c>
       <c r="H872" t="n">
-        <v>2</v>
-      </c>
-      <c r="I872" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I872" t="n">
+        <v>4.15</v>
+      </c>
       <c r="J872" t="inlineStr"/>
-      <c r="K872" t="inlineStr"/>
+      <c r="K872" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L872" t="n">
         <v>1</v>
       </c>
@@ -29410,11 +29522,17 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H873" t="n">
-        <v>2</v>
-      </c>
-      <c r="I873" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I873" t="n">
+        <v>4.15</v>
+      </c>
       <c r="J873" t="inlineStr"/>
-      <c r="K873" t="inlineStr"/>
+      <c r="K873" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L873" t="n">
         <v>1</v>
       </c>
@@ -29443,11 +29561,17 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H874" t="n">
-        <v>2</v>
-      </c>
-      <c r="I874" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I874" t="n">
+        <v>4.14</v>
+      </c>
       <c r="J874" t="inlineStr"/>
-      <c r="K874" t="inlineStr"/>
+      <c r="K874" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L874" t="n">
         <v>1</v>
       </c>
@@ -29476,11 +29600,17 @@
         <v>-163726742.8145685</v>
       </c>
       <c r="H875" t="n">
-        <v>0</v>
-      </c>
-      <c r="I875" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I875" t="n">
+        <v>4.14</v>
+      </c>
       <c r="J875" t="inlineStr"/>
-      <c r="K875" t="inlineStr"/>
+      <c r="K875" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L875" t="n">
         <v>1</v>
       </c>
@@ -29509,11 +29639,17 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H876" t="n">
-        <v>0</v>
-      </c>
-      <c r="I876" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I876" t="n">
+        <v>4.14</v>
+      </c>
       <c r="J876" t="inlineStr"/>
-      <c r="K876" t="inlineStr"/>
+      <c r="K876" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L876" t="n">
         <v>1</v>
       </c>
@@ -29546,7 +29682,11 @@
       </c>
       <c r="I877" t="inlineStr"/>
       <c r="J877" t="inlineStr"/>
-      <c r="K877" t="inlineStr"/>
+      <c r="K877" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L877" t="n">
         <v>1</v>
       </c>
@@ -29575,11 +29715,17 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H878" t="n">
-        <v>2</v>
-      </c>
-      <c r="I878" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I878" t="n">
+        <v>4.15</v>
+      </c>
       <c r="J878" t="inlineStr"/>
-      <c r="K878" t="inlineStr"/>
+      <c r="K878" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L878" t="n">
         <v>1</v>
       </c>
@@ -29608,11 +29754,15 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H879" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I879" t="inlineStr"/>
       <c r="J879" t="inlineStr"/>
-      <c r="K879" t="inlineStr"/>
+      <c r="K879" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L879" t="n">
         <v>1</v>
       </c>
@@ -29641,11 +29791,15 @@
         <v>-163128133.5128685</v>
       </c>
       <c r="H880" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I880" t="inlineStr"/>
       <c r="J880" t="inlineStr"/>
-      <c r="K880" t="inlineStr"/>
+      <c r="K880" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L880" t="n">
         <v>1</v>
       </c>
@@ -29674,11 +29828,15 @@
         <v>-162719693.5620685</v>
       </c>
       <c r="H881" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I881" t="inlineStr"/>
       <c r="J881" t="inlineStr"/>
-      <c r="K881" t="inlineStr"/>
+      <c r="K881" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L881" t="n">
         <v>1</v>
       </c>
@@ -29707,11 +29865,15 @@
         <v>-162335398.3456685</v>
       </c>
       <c r="H882" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I882" t="inlineStr"/>
       <c r="J882" t="inlineStr"/>
-      <c r="K882" t="inlineStr"/>
+      <c r="K882" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L882" t="n">
         <v>1</v>
       </c>
@@ -29740,11 +29902,15 @@
         <v>-162086314.2556685</v>
       </c>
       <c r="H883" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I883" t="inlineStr"/>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29777,7 +29943,11 @@
       </c>
       <c r="I884" t="inlineStr"/>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29810,7 +29980,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29843,7 +30017,11 @@
       </c>
       <c r="I886" t="inlineStr"/>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29876,7 +30054,11 @@
       </c>
       <c r="I887" t="inlineStr"/>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29909,7 +30091,11 @@
       </c>
       <c r="I888" t="inlineStr"/>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29942,7 +30128,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29975,7 +30165,11 @@
       </c>
       <c r="I890" t="inlineStr"/>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -30008,7 +30202,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -30041,7 +30239,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -30074,7 +30276,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -30107,7 +30313,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -30140,7 +30350,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -30173,7 +30387,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -30206,7 +30424,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30239,7 +30461,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30272,7 +30498,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30305,7 +30535,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30338,7 +30572,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30371,7 +30609,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30404,7 +30646,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30437,7 +30683,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30470,7 +30720,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30503,7 +30757,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30536,7 +30794,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30569,7 +30831,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
